--- a/models/ISOM_Symbols_Catalogue.xlsx
+++ b/models/ISOM_Symbols_Catalogue.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\Documents\OGIS\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Git\OGIS\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC896242-E13B-4F48-AE4B-9BCADE5FC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2115" windowWidth="21600" windowHeight="11175" xr2:uid="{E4240535-D5A5-4492-8727-F8D03FF70BBD}"/>
+    <workbookView xWindow="4515" yWindow="2115" windowWidth="21600" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -637,7 +636,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -699,31 +698,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{577C06CF-F996-4352-ACEF-F5C092192AD3}" name="Table1" displayName="Table1" ref="A1:F373" totalsRowShown="0">
-  <autoFilter ref="A1:F373" xr:uid="{577C06CF-F996-4352-ACEF-F5C092192AD3}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="it"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Point"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F373">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F373" totalsRowShown="0">
+  <autoFilter ref="A1:F373"/>
+  <sortState ref="A2:F373">
     <sortCondition ref="B1:B373"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0A721C12-499B-4D98-839B-4462F64989D3}" name="id"/>
-    <tableColumn id="2" xr3:uid="{E3A2C371-C284-4E05-B235-0DB38E92E8DE}" name="code"/>
-    <tableColumn id="3" xr3:uid="{AB36A134-4380-466E-A7BC-41946D650998}" name="description_lang"/>
-    <tableColumn id="6" xr3:uid="{FA0EC050-2406-4533-AC00-E6E68F68C05D}" name="description_text" dataDxfId="0">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="code"/>
+    <tableColumn id="3" name="description_lang"/>
+    <tableColumn id="6" name="description_text" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D48C9B39-2908-4286-A5AE-1AB298604712}" name="description_shorttext"/>
-    <tableColumn id="5" xr3:uid="{53764A4C-3480-4D41-BA32-B042B353DAE9}" name="geom_type"/>
+    <tableColumn id="4" name="description_shorttext"/>
+    <tableColumn id="5" name="geom_type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1025,18 +1013,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B049E5-0DFD-458B-A2A2-8E9C158AF8DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B373"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
@@ -1061,9 +1049,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1011</v>
       </c>
       <c r="B2">
@@ -1073,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>101 Contour</v>
       </c>
       <c r="E2" t="s">
@@ -1083,9 +1071,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1012</v>
       </c>
       <c r="B3">
@@ -1095,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>101 Curva di livello</v>
       </c>
       <c r="E3" t="s">
@@ -1105,9 +1093,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1013</v>
       </c>
       <c r="B4">
@@ -1117,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>101 text fr</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1127,9 +1115,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1014</v>
       </c>
       <c r="B5">
@@ -1139,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>101 text de</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1149,9 +1137,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1021</v>
       </c>
       <c r="B6">
@@ -1161,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>102 Index contour</v>
       </c>
       <c r="E6" t="s">
@@ -1171,9 +1159,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1022</v>
       </c>
       <c r="B7">
@@ -1183,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>102 Curva direttrice</v>
       </c>
       <c r="E7" t="s">
@@ -1193,9 +1181,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1023</v>
       </c>
       <c r="B8">
@@ -1205,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>102 text fr</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1215,9 +1203,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1024</v>
       </c>
       <c r="B9">
@@ -1227,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>102 text de</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1237,9 +1225,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1031</v>
       </c>
       <c r="B10">
@@ -1249,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>103 Form line</v>
       </c>
       <c r="E10" t="s">
@@ -1259,9 +1247,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1032</v>
       </c>
       <c r="B11">
@@ -1271,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>103 Curva ausiliaria</v>
       </c>
       <c r="E11" t="s">
@@ -1281,9 +1269,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1033</v>
       </c>
       <c r="B12">
@@ -1293,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>103 text fr</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1303,9 +1291,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1034</v>
       </c>
       <c r="B13">
@@ -1315,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>103 text de</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1325,9 +1313,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1041</v>
       </c>
       <c r="B14">
@@ -1337,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>104 Earth bank</v>
       </c>
       <c r="E14" t="s">
@@ -1347,9 +1335,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1042</v>
       </c>
       <c r="B15">
@@ -1359,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>104 Scarpata</v>
       </c>
       <c r="E15" t="s">
@@ -1369,9 +1357,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1043</v>
       </c>
       <c r="B16">
@@ -1381,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>104 text fr</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1391,9 +1379,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1044</v>
       </c>
       <c r="B17">
@@ -1403,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>104 text de</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1413,9 +1401,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1051</v>
       </c>
       <c r="B18">
@@ -1425,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>105 Earth wall</v>
       </c>
       <c r="E18" t="s">
@@ -1435,9 +1423,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1052</v>
       </c>
       <c r="B19">
@@ -1447,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>105 Muro di terra (terrapieno)</v>
       </c>
       <c r="E19" t="s">
@@ -1457,9 +1445,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1053</v>
       </c>
       <c r="B20">
@@ -1469,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>105 text fr</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1479,9 +1467,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1054</v>
       </c>
       <c r="B21">
@@ -1491,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>105 text de</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1501,9 +1489,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1061</v>
       </c>
       <c r="B22">
@@ -1513,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>106 Ruined earth wall</v>
       </c>
       <c r="E22" t="s">
@@ -1523,9 +1511,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1062</v>
       </c>
       <c r="B23">
@@ -1535,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>106 Muro di terra (terrapieno) diroccato</v>
       </c>
       <c r="E23" t="s">
@@ -1545,9 +1533,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1063</v>
       </c>
       <c r="B24">
@@ -1557,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>106 text fr</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1567,9 +1555,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1064</v>
       </c>
       <c r="B25">
@@ -1579,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>106 text de</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1589,9 +1577,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1071</v>
       </c>
       <c r="B26">
@@ -1601,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>107 Erosion gully</v>
       </c>
       <c r="E26" t="s">
@@ -1611,9 +1599,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1072</v>
       </c>
       <c r="B27">
@@ -1623,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>107 Fossa d'erosione</v>
       </c>
       <c r="E27" t="s">
@@ -1633,9 +1621,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1073</v>
       </c>
       <c r="B28">
@@ -1645,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>107 text fr</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1655,9 +1643,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1074</v>
       </c>
       <c r="B29">
@@ -1667,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>107 text de</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1677,9 +1665,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1081</v>
       </c>
       <c r="B30">
@@ -1689,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>108 Small erosion gully</v>
       </c>
       <c r="E30" t="s">
@@ -1699,9 +1687,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1082</v>
       </c>
       <c r="B31">
@@ -1711,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>108 Canaletto asciutto</v>
       </c>
       <c r="E31" t="s">
@@ -1721,9 +1709,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1083</v>
       </c>
       <c r="B32">
@@ -1733,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>108 text fr</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1743,9 +1731,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1084</v>
       </c>
       <c r="B33">
@@ -1755,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>108 text de</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1765,9 +1753,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1091</v>
       </c>
       <c r="B34">
@@ -1777,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>109 Small knoll</v>
       </c>
       <c r="E34" t="s">
@@ -1789,7 +1777,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1092</v>
       </c>
       <c r="B35">
@@ -1799,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>109 Cocuzzolo</v>
       </c>
       <c r="E35" t="s">
@@ -1809,9 +1797,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1093</v>
       </c>
       <c r="B36">
@@ -1821,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>109 text fr</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1831,9 +1819,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1094</v>
       </c>
       <c r="B37">
@@ -1843,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>109 text de</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1853,9 +1841,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1101</v>
       </c>
       <c r="B38">
@@ -1865,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>110 Small elongated knoll</v>
       </c>
       <c r="E38" t="s">
@@ -1877,7 +1865,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1102</v>
       </c>
       <c r="B39">
@@ -1887,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>110 Cocuzzolo allungato</v>
       </c>
       <c r="E39" t="s">
@@ -1897,9 +1885,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1103</v>
       </c>
       <c r="B40">
@@ -1909,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>110 text fr</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1919,9 +1907,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1104</v>
       </c>
       <c r="B41">
@@ -1931,7 +1919,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>110 text de</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1941,9 +1929,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1111</v>
       </c>
       <c r="B42">
@@ -1953,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>111 Small depression</v>
       </c>
       <c r="E42" t="s">
@@ -1965,7 +1953,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1112</v>
       </c>
       <c r="B43">
@@ -1975,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>111 Piccola depressione</v>
       </c>
       <c r="E43" t="s">
@@ -1985,9 +1973,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1113</v>
       </c>
       <c r="B44">
@@ -1997,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>111 text fr</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2007,9 +1995,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1114</v>
       </c>
       <c r="B45">
@@ -2019,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>111 text de</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2029,9 +2017,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1121</v>
       </c>
       <c r="B46">
@@ -2041,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>112 Pit</v>
       </c>
       <c r="E46" t="s">
@@ -2053,7 +2041,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1122</v>
       </c>
       <c r="B47">
@@ -2063,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>112 Buca</v>
       </c>
       <c r="E47" t="s">
@@ -2073,9 +2061,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1123</v>
       </c>
       <c r="B48">
@@ -2085,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>112 text fr</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2095,9 +2083,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1124</v>
       </c>
       <c r="B49">
@@ -2107,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="D49" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>112 text de</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2117,9 +2105,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1131</v>
       </c>
       <c r="B50">
@@ -2129,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>113 Broken ground</v>
       </c>
       <c r="E50" t="s">
@@ -2139,9 +2127,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1132</v>
       </c>
       <c r="B51">
@@ -2151,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>113 Terreno sconnesso</v>
       </c>
       <c r="E51" t="s">
@@ -2161,9 +2149,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1133</v>
       </c>
       <c r="B52">
@@ -2173,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>113 text fr</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2183,9 +2171,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1134</v>
       </c>
       <c r="B53">
@@ -2195,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="D53" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>113 text de</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2205,9 +2193,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1141</v>
       </c>
       <c r="B54">
@@ -2217,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>114 Very broken ground</v>
       </c>
       <c r="E54" t="s">
@@ -2227,9 +2215,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1142</v>
       </c>
       <c r="B55">
@@ -2239,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>114 Terreno molto sconnesso</v>
       </c>
       <c r="E55" t="s">
@@ -2249,9 +2237,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1143</v>
       </c>
       <c r="B56">
@@ -2261,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>114 text fr</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2271,9 +2259,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1144</v>
       </c>
       <c r="B57">
@@ -2283,7 +2271,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>114 text de</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2293,9 +2281,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1151</v>
       </c>
       <c r="B58">
@@ -2305,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>115 Prominent landform feature</v>
       </c>
       <c r="E58" t="s">
@@ -2317,7 +2305,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1152</v>
       </c>
       <c r="B59">
@@ -2327,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>115 Evidente oggetto particolare nel terreno</v>
       </c>
       <c r="E59" t="s">
@@ -2337,9 +2325,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1153</v>
       </c>
       <c r="B60">
@@ -2349,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>115 text fr</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2359,9 +2347,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1154</v>
       </c>
       <c r="B61">
@@ -2371,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>115 text de</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2381,9 +2369,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2011</v>
       </c>
       <c r="B62">
@@ -2393,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>201 Impassable cliff</v>
       </c>
       <c r="E62" t="s">
@@ -2403,9 +2391,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2012</v>
       </c>
       <c r="B63">
@@ -2415,7 +2403,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>201 Parete non attraversabile</v>
       </c>
       <c r="E63" t="s">
@@ -2425,9 +2413,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2013</v>
       </c>
       <c r="B64">
@@ -2437,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>201 text fr</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -2447,9 +2435,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2014</v>
       </c>
       <c r="B65">
@@ -2459,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>201 text de</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -2469,9 +2457,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2021</v>
       </c>
       <c r="B66">
@@ -2481,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>202 Cliff</v>
       </c>
       <c r="E66" t="s">
@@ -2491,9 +2479,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2022</v>
       </c>
       <c r="B67">
@@ -2503,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>202 Parete di roccia</v>
       </c>
       <c r="E67" t="s">
@@ -2513,9 +2501,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2023</v>
       </c>
       <c r="B68">
@@ -2525,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>202 text fr</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2535,9 +2523,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2024</v>
       </c>
       <c r="B69">
@@ -2547,7 +2535,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>202 text de</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2557,9 +2545,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2031</v>
       </c>
       <c r="B70">
@@ -2569,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>203 Rocky pit or cave</v>
       </c>
       <c r="E70" t="s">
@@ -2581,7 +2569,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2032</v>
       </c>
       <c r="B71">
@@ -2591,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>203 Buca rocciosa o cavernosa</v>
       </c>
       <c r="E71" t="s">
@@ -2601,9 +2589,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2033</v>
       </c>
       <c r="B72">
@@ -2613,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>203 text fr</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2623,9 +2611,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2034</v>
       </c>
       <c r="B73">
@@ -2635,7 +2623,7 @@
         <v>11</v>
       </c>
       <c r="D73" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>203 text de</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2645,9 +2633,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2041</v>
       </c>
       <c r="B74">
@@ -2657,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="D74" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>204 Boulder</v>
       </c>
       <c r="E74" t="s">
@@ -2669,7 +2657,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2042</v>
       </c>
       <c r="B75">
@@ -2679,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>204 Masso</v>
       </c>
       <c r="E75" t="s">
@@ -2689,9 +2677,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2043</v>
       </c>
       <c r="B76">
@@ -2701,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>204 text fr</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -2711,9 +2699,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2044</v>
       </c>
       <c r="B77">
@@ -2723,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="D77" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>204 text de</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2733,9 +2721,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2051</v>
       </c>
       <c r="B78">
@@ -2745,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>205 Large boulder</v>
       </c>
       <c r="E78" t="s">
@@ -2757,7 +2745,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2052</v>
       </c>
       <c r="B79">
@@ -2767,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>205 Grande masso</v>
       </c>
       <c r="E79" t="s">
@@ -2777,9 +2765,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2053</v>
       </c>
       <c r="B80">
@@ -2789,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>205 text fr</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -2799,9 +2787,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2054</v>
       </c>
       <c r="B81">
@@ -2811,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="D81" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>205 text de</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -2821,9 +2809,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2061</v>
       </c>
       <c r="B82">
@@ -2833,7 +2821,7 @@
         <v>5</v>
       </c>
       <c r="D82" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>206 Gigantic boulder or rock pillar</v>
       </c>
       <c r="E82" t="s">
@@ -2843,9 +2831,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2062</v>
       </c>
       <c r="B83">
@@ -2855,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>206 Masso enorme o pilastro di roccia</v>
       </c>
       <c r="E83" t="s">
@@ -2865,9 +2853,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2063</v>
       </c>
       <c r="B84">
@@ -2877,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>206 text fr</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -2887,9 +2875,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2064</v>
       </c>
       <c r="B85">
@@ -2899,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>206 text de</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -2909,9 +2897,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2071</v>
       </c>
       <c r="B86">
@@ -2921,7 +2909,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>207 Boulder cluster</v>
       </c>
       <c r="E86" t="s">
@@ -2933,7 +2921,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2072</v>
       </c>
       <c r="B87">
@@ -2943,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>207 Cumulo di massi</v>
       </c>
       <c r="E87" t="s">
@@ -2953,9 +2941,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2073</v>
       </c>
       <c r="B88">
@@ -2965,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>207 text fr</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -2975,9 +2963,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2074</v>
       </c>
       <c r="B89">
@@ -2987,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="D89" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>207 text de</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -2997,9 +2985,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2081</v>
       </c>
       <c r="B90">
@@ -3009,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>208 Boulder field</v>
       </c>
       <c r="E90" t="s">
@@ -3019,9 +3007,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2082</v>
       </c>
       <c r="B91">
@@ -3031,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="D91" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>208 Massi sparsi</v>
       </c>
       <c r="E91" t="s">
@@ -3041,9 +3029,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2083</v>
       </c>
       <c r="B92">
@@ -3053,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>208 text fr</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -3063,9 +3051,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2084</v>
       </c>
       <c r="B93">
@@ -3075,7 +3063,7 @@
         <v>11</v>
       </c>
       <c r="D93" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>208 text de</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -3085,9 +3073,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2091</v>
       </c>
       <c r="B94">
@@ -3097,7 +3085,7 @@
         <v>5</v>
       </c>
       <c r="D94" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>209 Dense boulder field</v>
       </c>
       <c r="E94" t="s">
@@ -3107,9 +3095,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2092</v>
       </c>
       <c r="B95">
@@ -3119,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="D95" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>209 Massi densamente sparsi</v>
       </c>
       <c r="E95" t="s">
@@ -3129,9 +3117,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2093</v>
       </c>
       <c r="B96">
@@ -3141,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>209 text fr</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -3151,9 +3139,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2094</v>
       </c>
       <c r="B97">
@@ -3163,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>209 text de</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -3173,9 +3161,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2101</v>
       </c>
       <c r="B98">
@@ -3185,7 +3173,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>210 Stony ground, slow tunning</v>
       </c>
       <c r="E98" t="s">
@@ -3195,9 +3183,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2102</v>
       </c>
       <c r="B99">
@@ -3207,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="D99" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>210 Terreno sassoso, corsa lenta</v>
       </c>
       <c r="E99" t="s">
@@ -3217,9 +3205,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2103</v>
       </c>
       <c r="B100">
@@ -3229,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>210 text fr</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -3239,9 +3227,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2104</v>
       </c>
       <c r="B101">
@@ -3251,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="D101" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>210 text de</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -3261,9 +3249,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2111</v>
       </c>
       <c r="B102">
@@ -3273,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="D102" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>211 Stony ground, walk</v>
       </c>
       <c r="E102" t="s">
@@ -3283,9 +3271,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2112</v>
       </c>
       <c r="B103">
@@ -3295,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="D103" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>211 Terreno sassoso, al passo</v>
       </c>
       <c r="E103" t="s">
@@ -3305,9 +3293,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2113</v>
       </c>
       <c r="B104">
@@ -3317,7 +3305,7 @@
         <v>12</v>
       </c>
       <c r="D104" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>211 text fr</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -3327,9 +3315,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2114</v>
       </c>
       <c r="B105">
@@ -3339,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>211 text de</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -3349,9 +3337,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2121</v>
       </c>
       <c r="B106">
@@ -3361,7 +3349,7 @@
         <v>5</v>
       </c>
       <c r="D106" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>212 Stony ground, fight</v>
       </c>
       <c r="E106" t="s">
@@ -3371,9 +3359,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2122</v>
       </c>
       <c r="B107">
@@ -3383,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="D107" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>212 Terreno sassoso, attraversamento difficile</v>
       </c>
       <c r="E107" t="s">
@@ -3393,9 +3381,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2123</v>
       </c>
       <c r="B108">
@@ -3405,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>212 text fr</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -3415,9 +3403,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2124</v>
       </c>
       <c r="B109">
@@ -3427,7 +3415,7 @@
         <v>11</v>
       </c>
       <c r="D109" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>212 text de</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -3437,9 +3425,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2131</v>
       </c>
       <c r="B110">
@@ -3449,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="D110" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>213 Sandy ground</v>
       </c>
       <c r="E110" t="s">
@@ -3459,9 +3447,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2132</v>
       </c>
       <c r="B111">
@@ -3471,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="D111" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>213 Terreno sabbioso</v>
       </c>
       <c r="E111" t="s">
@@ -3481,9 +3469,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2133</v>
       </c>
       <c r="B112">
@@ -3493,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>213 text fr</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -3503,9 +3491,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2134</v>
       </c>
       <c r="B113">
@@ -3515,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="D113" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>213 text de</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -3525,9 +3513,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2141</v>
       </c>
       <c r="B114">
@@ -3537,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="D114" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>214 Bare rock</v>
       </c>
       <c r="E114" t="s">
@@ -3547,9 +3535,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2142</v>
       </c>
       <c r="B115">
@@ -3559,7 +3547,7 @@
         <v>4</v>
       </c>
       <c r="D115" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>214 Roccia nuda</v>
       </c>
       <c r="E115" t="s">
@@ -3569,9 +3557,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2143</v>
       </c>
       <c r="B116">
@@ -3581,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>214 text fr</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -3591,9 +3579,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2144</v>
       </c>
       <c r="B117">
@@ -3603,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>214 text de</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -3613,9 +3601,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2151</v>
       </c>
       <c r="B118">
@@ -3625,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="D118" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>215 Trench</v>
       </c>
       <c r="E118" t="s">
@@ -3635,9 +3623,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2152</v>
       </c>
       <c r="B119">
@@ -3647,7 +3635,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>215 Trincea</v>
       </c>
       <c r="E119" t="s">
@@ -3657,9 +3645,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2153</v>
       </c>
       <c r="B120">
@@ -3669,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="D120" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>215 text fr</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -3679,9 +3667,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2154</v>
       </c>
       <c r="B121">
@@ -3691,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="D121" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>215 text de</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -3701,9 +3689,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3011</v>
       </c>
       <c r="B122">
@@ -3713,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="D122" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>301 Uncrossable body of water</v>
       </c>
       <c r="E122" t="s">
@@ -3723,9 +3711,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3012</v>
       </c>
       <c r="B123">
@@ -3735,7 +3723,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>301 Specchio d'acqua non attraversabile</v>
       </c>
       <c r="E123" t="s">
@@ -3745,9 +3733,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3013</v>
       </c>
       <c r="B124">
@@ -3757,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="D124" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>301 text fr</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -3767,9 +3755,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3014</v>
       </c>
       <c r="B125">
@@ -3779,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="D125" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>301 text de</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -3789,9 +3777,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3021</v>
       </c>
       <c r="B126">
@@ -3801,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="D126" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>302 Shallow body of water</v>
       </c>
       <c r="E126" t="s">
@@ -3811,9 +3799,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3022</v>
       </c>
       <c r="B127">
@@ -3823,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>302 Specchio d'acqua poco profondo</v>
       </c>
       <c r="E127" t="s">
@@ -3833,9 +3821,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3023</v>
       </c>
       <c r="B128">
@@ -3845,7 +3833,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>302 text fr</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -3855,9 +3843,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3024</v>
       </c>
       <c r="B129">
@@ -3867,7 +3855,7 @@
         <v>11</v>
       </c>
       <c r="D129" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>302 text de</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -3877,9 +3865,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3031</v>
       </c>
       <c r="B130">
@@ -3889,7 +3877,7 @@
         <v>5</v>
       </c>
       <c r="D130" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>303 Waterhole</v>
       </c>
       <c r="E130" t="s">
@@ -3901,7 +3889,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3032</v>
       </c>
       <c r="B131">
@@ -3911,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="D131" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>303 Buca d'acqua</v>
       </c>
       <c r="E131" t="s">
@@ -3921,9 +3909,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3033</v>
       </c>
       <c r="B132">
@@ -3933,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="D132" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>303 text fr</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -3943,9 +3931,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3034</v>
       </c>
       <c r="B133">
@@ -3955,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="D133" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>303 text de</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -3965,9 +3953,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3041</v>
       </c>
       <c r="B134">
@@ -3977,7 +3965,7 @@
         <v>5</v>
       </c>
       <c r="D134" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>304 Crossable watercourse</v>
       </c>
       <c r="E134" t="s">
@@ -3987,9 +3975,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3042</v>
       </c>
       <c r="B135">
@@ -3999,7 +3987,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>304 Corso d'acqua attraversabile</v>
       </c>
       <c r="E135" t="s">
@@ -4009,9 +3997,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3043</v>
       </c>
       <c r="B136">
@@ -4021,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="D136" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>304 text fr</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -4031,9 +4019,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3044</v>
       </c>
       <c r="B137">
@@ -4043,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="D137" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>304 text de</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -4053,9 +4041,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3051</v>
       </c>
       <c r="B138">
@@ -4065,7 +4053,7 @@
         <v>5</v>
       </c>
       <c r="D138" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>305 Small crossable watercourse</v>
       </c>
       <c r="E138" t="s">
@@ -4075,9 +4063,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3052</v>
       </c>
       <c r="B139">
@@ -4087,7 +4075,7 @@
         <v>4</v>
       </c>
       <c r="D139" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>305 Piccolo corso d'acqua attraversabile</v>
       </c>
       <c r="E139" t="s">
@@ -4097,9 +4085,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3053</v>
       </c>
       <c r="B140">
@@ -4109,7 +4097,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>305 text fr</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -4119,9 +4107,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3054</v>
       </c>
       <c r="B141">
@@ -4131,7 +4119,7 @@
         <v>11</v>
       </c>
       <c r="D141" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>305 text de</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -4141,9 +4129,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3061</v>
       </c>
       <c r="B142">
@@ -4153,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="D142" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>306 Minor/seasonal water channel</v>
       </c>
       <c r="E142" t="s">
@@ -4163,9 +4151,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3062</v>
       </c>
       <c r="B143">
@@ -4175,7 +4163,7 @@
         <v>4</v>
       </c>
       <c r="D143" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>306 Canale d'acqua secondario/stagionale</v>
       </c>
       <c r="E143" t="s">
@@ -4185,9 +4173,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3063</v>
       </c>
       <c r="B144">
@@ -4197,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>306 text fr</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -4207,9 +4195,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3064</v>
       </c>
       <c r="B145">
@@ -4219,7 +4207,7 @@
         <v>11</v>
       </c>
       <c r="D145" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>306 text de</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -4229,9 +4217,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3071</v>
       </c>
       <c r="B146">
@@ -4241,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="D146" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>307 Uncrossable marsh</v>
       </c>
       <c r="E146" t="s">
@@ -4251,9 +4239,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3072</v>
       </c>
       <c r="B147">
@@ -4263,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="D147" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>307 Palude non attraversabile</v>
       </c>
       <c r="E147" t="s">
@@ -4273,9 +4261,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3073</v>
       </c>
       <c r="B148">
@@ -4285,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>307 text fr</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -4295,9 +4283,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3074</v>
       </c>
       <c r="B149">
@@ -4307,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="D149" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>307 text de</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -4317,9 +4305,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3081</v>
       </c>
       <c r="B150">
@@ -4329,7 +4317,7 @@
         <v>5</v>
       </c>
       <c r="D150" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>308 Marsh</v>
       </c>
       <c r="E150" t="s">
@@ -4339,9 +4327,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3082</v>
       </c>
       <c r="B151">
@@ -4351,7 +4339,7 @@
         <v>4</v>
       </c>
       <c r="D151" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>308 Palude</v>
       </c>
       <c r="E151" t="s">
@@ -4361,9 +4349,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3083</v>
       </c>
       <c r="B152">
@@ -4373,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="D152" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>308 text fr</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -4383,9 +4371,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3084</v>
       </c>
       <c r="B153">
@@ -4395,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="D153" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>308 text de</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -4405,9 +4393,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3091</v>
       </c>
       <c r="B154">
@@ -4417,7 +4405,7 @@
         <v>5</v>
       </c>
       <c r="D154" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>309 Narrow marsh</v>
       </c>
       <c r="E154" t="s">
@@ -4427,9 +4415,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3092</v>
       </c>
       <c r="B155">
@@ -4439,7 +4427,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>309 Palude stretta</v>
       </c>
       <c r="E155" t="s">
@@ -4449,9 +4437,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3093</v>
       </c>
       <c r="B156">
@@ -4461,7 +4449,7 @@
         <v>12</v>
       </c>
       <c r="D156" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>309 text fr</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -4471,9 +4459,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3094</v>
       </c>
       <c r="B157">
@@ -4483,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="D157" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>309 text de</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -4493,9 +4481,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3101</v>
       </c>
       <c r="B158">
@@ -4505,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="D158" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>310 Indistinct marsh</v>
       </c>
       <c r="E158" t="s">
@@ -4515,9 +4503,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3102</v>
       </c>
       <c r="B159">
@@ -4527,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>310 Palude poco evidente</v>
       </c>
       <c r="E159" t="s">
@@ -4537,9 +4525,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3103</v>
       </c>
       <c r="B160">
@@ -4549,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="D160" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>310 text fr</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -4559,9 +4547,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3104</v>
       </c>
       <c r="B161">
@@ -4571,7 +4559,7 @@
         <v>11</v>
       </c>
       <c r="D161" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>310 text de</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -4581,9 +4569,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3111</v>
       </c>
       <c r="B162">
@@ -4593,7 +4581,7 @@
         <v>5</v>
       </c>
       <c r="D162" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>311 Well, fountain or water tank</v>
       </c>
       <c r="E162" t="s">
@@ -4605,7 +4593,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3112</v>
       </c>
       <c r="B163">
@@ -4615,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="D163" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>311 Pozzo, fontana o cisterna</v>
       </c>
       <c r="E163" t="s">
@@ -4625,9 +4613,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3113</v>
       </c>
       <c r="B164">
@@ -4637,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="D164" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>311 text fr</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -4647,9 +4635,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3114</v>
       </c>
       <c r="B165">
@@ -4659,7 +4647,7 @@
         <v>11</v>
       </c>
       <c r="D165" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>311 text de</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -4669,9 +4657,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3121</v>
       </c>
       <c r="B166">
@@ -4681,7 +4669,7 @@
         <v>5</v>
       </c>
       <c r="D166" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>312 Spring</v>
       </c>
       <c r="E166" t="s">
@@ -4693,7 +4681,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3122</v>
       </c>
       <c r="B167">
@@ -4703,7 +4691,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>312 Sorgente</v>
       </c>
       <c r="E167" t="s">
@@ -4713,9 +4701,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3123</v>
       </c>
       <c r="B168">
@@ -4725,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="D168" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>312 text fr</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -4735,9 +4723,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3124</v>
       </c>
       <c r="B169">
@@ -4747,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="D169" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>312 text de</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -4757,9 +4745,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3131</v>
       </c>
       <c r="B170">
@@ -4769,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="D170" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>313 Prominent water feature</v>
       </c>
       <c r="E170" t="s">
@@ -4781,7 +4769,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3132</v>
       </c>
       <c r="B171">
@@ -4791,7 +4779,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>313 Oggetto idrico evidente</v>
       </c>
       <c r="E171" t="s">
@@ -4801,9 +4789,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3133</v>
       </c>
       <c r="B172">
@@ -4813,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="D172" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>313 text fr</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -4823,9 +4811,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3134</v>
       </c>
       <c r="B173">
@@ -4835,7 +4823,7 @@
         <v>11</v>
       </c>
       <c r="D173" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>313 text de</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -4845,9 +4833,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4011</v>
       </c>
       <c r="B174">
@@ -4857,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="D174" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>401 Open land</v>
       </c>
       <c r="E174" t="s">
@@ -4867,9 +4855,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4012</v>
       </c>
       <c r="B175">
@@ -4879,7 +4867,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>401 Terreno aperto</v>
       </c>
       <c r="E175" t="s">
@@ -4889,9 +4877,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4013</v>
       </c>
       <c r="B176">
@@ -4901,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="D176" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>401 text fr</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -4911,9 +4899,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4014</v>
       </c>
       <c r="B177">
@@ -4923,7 +4911,7 @@
         <v>11</v>
       </c>
       <c r="D177" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>401 text de</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -4933,9 +4921,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4021</v>
       </c>
       <c r="B178">
@@ -4945,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="D178" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>402 Open land with scattered trees</v>
       </c>
       <c r="E178" t="s">
@@ -4955,9 +4943,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4022</v>
       </c>
       <c r="B179">
@@ -4967,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="D179" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>402 Terreno aperto con alberi sparsi</v>
       </c>
       <c r="E179" t="s">
@@ -4977,9 +4965,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4023</v>
       </c>
       <c r="B180">
@@ -4989,7 +4977,7 @@
         <v>12</v>
       </c>
       <c r="D180" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>402 text fr</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -4999,9 +4987,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4024</v>
       </c>
       <c r="B181">
@@ -5011,7 +4999,7 @@
         <v>11</v>
       </c>
       <c r="D181" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>402 text de</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -5021,9 +5009,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4031</v>
       </c>
       <c r="B182">
@@ -5033,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="D182" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>403 Rough open land</v>
       </c>
       <c r="E182" t="s">
@@ -5043,9 +5031,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4032</v>
       </c>
       <c r="B183">
@@ -5055,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="D183" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>403 Terreno aperto grezzo</v>
       </c>
       <c r="E183" t="s">
@@ -5065,9 +5053,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4033</v>
       </c>
       <c r="B184">
@@ -5077,7 +5065,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>403 text fr</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -5087,9 +5075,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4034</v>
       </c>
       <c r="B185">
@@ -5099,7 +5087,7 @@
         <v>11</v>
       </c>
       <c r="D185" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>403 text de</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -5109,9 +5097,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4041</v>
       </c>
       <c r="B186">
@@ -5121,7 +5109,7 @@
         <v>5</v>
       </c>
       <c r="D186" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>404 Rough open land with scattered trees</v>
       </c>
       <c r="E186" t="s">
@@ -5131,9 +5119,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4042</v>
       </c>
       <c r="B187">
@@ -5143,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>404 Terreno aperto grezzo con alberi sparsi</v>
       </c>
       <c r="E187" t="s">
@@ -5153,9 +5141,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4043</v>
       </c>
       <c r="B188">
@@ -5165,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="D188" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>404 text fr</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -5175,9 +5163,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4044</v>
       </c>
       <c r="B189">
@@ -5187,7 +5175,7 @@
         <v>11</v>
       </c>
       <c r="D189" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>404 text de</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -5197,9 +5185,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4051</v>
       </c>
       <c r="B190">
@@ -5209,7 +5197,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>405 Forest</v>
       </c>
       <c r="E190" t="s">
@@ -5219,9 +5207,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4052</v>
       </c>
       <c r="B191">
@@ -5231,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="D191" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>405 Bosco</v>
       </c>
       <c r="E191" t="s">
@@ -5241,9 +5229,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4053</v>
       </c>
       <c r="B192">
@@ -5253,7 +5241,7 @@
         <v>12</v>
       </c>
       <c r="D192" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>405 text fr</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -5263,9 +5251,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4054</v>
       </c>
       <c r="B193">
@@ -5275,7 +5263,7 @@
         <v>11</v>
       </c>
       <c r="D193" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>405 text de</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -5285,9 +5273,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4061</v>
       </c>
       <c r="B194">
@@ -5297,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="D194" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>406 Vegetation: slow running</v>
       </c>
       <c r="E194" t="s">
@@ -5307,9 +5295,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4062</v>
       </c>
       <c r="B195">
@@ -5319,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="D195" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>406 Vegetazione: corsa lenta</v>
       </c>
       <c r="E195" t="s">
@@ -5329,9 +5317,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4063</v>
       </c>
       <c r="B196">
@@ -5341,7 +5329,7 @@
         <v>12</v>
       </c>
       <c r="D196" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>406 text fr</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -5351,9 +5339,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4064</v>
       </c>
       <c r="B197">
@@ -5363,7 +5351,7 @@
         <v>11</v>
       </c>
       <c r="D197" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>406 text de</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -5373,9 +5361,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4071</v>
       </c>
       <c r="B198">
@@ -5385,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>407 Vegetation, slow running, good visibility</v>
       </c>
       <c r="E198" t="s">
@@ -5395,9 +5383,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4072</v>
       </c>
       <c r="B199">
@@ -5407,7 +5395,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>407 Vegetazione: corsa lenta, buona visibilità</v>
       </c>
       <c r="E199" t="s">
@@ -5417,9 +5405,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4073</v>
       </c>
       <c r="B200">
@@ -5429,7 +5417,7 @@
         <v>12</v>
       </c>
       <c r="D200" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>407 text fr</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -5439,9 +5427,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4074</v>
       </c>
       <c r="B201">
@@ -5451,7 +5439,7 @@
         <v>11</v>
       </c>
       <c r="D201" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>407 text de</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -5461,9 +5449,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4081</v>
       </c>
       <c r="B202">
@@ -5473,7 +5461,7 @@
         <v>5</v>
       </c>
       <c r="D202" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>408 Vegetation: walk</v>
       </c>
       <c r="E202" t="s">
@@ -5483,9 +5471,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4082</v>
       </c>
       <c r="B203">
@@ -5495,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="D203" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>408 Vegetazione: corsa molto ostacolata</v>
       </c>
       <c r="E203" t="s">
@@ -5505,9 +5493,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4083</v>
       </c>
       <c r="B204">
@@ -5517,7 +5505,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>408 text fr</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -5527,9 +5515,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4084</v>
       </c>
       <c r="B205">
@@ -5539,7 +5527,7 @@
         <v>11</v>
       </c>
       <c r="D205" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>408 text de</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -5549,9 +5537,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4091</v>
       </c>
       <c r="B206">
@@ -5561,7 +5549,7 @@
         <v>5</v>
       </c>
       <c r="D206" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>409 Vegetation: walk, good visibility</v>
       </c>
       <c r="E206" t="s">
@@ -5571,9 +5559,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4092</v>
       </c>
       <c r="B207">
@@ -5583,7 +5571,7 @@
         <v>4</v>
       </c>
       <c r="D207" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>409 Vegetazione: corsa molto ostacolata, buona visibilità</v>
       </c>
       <c r="E207" t="s">
@@ -5593,9 +5581,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4093</v>
       </c>
       <c r="B208">
@@ -5605,7 +5593,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>409 text fr</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -5615,9 +5603,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4094</v>
       </c>
       <c r="B209">
@@ -5627,7 +5615,7 @@
         <v>11</v>
       </c>
       <c r="D209" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>409 text de</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -5637,9 +5625,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4101</v>
       </c>
       <c r="B210">
@@ -5649,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="D210" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>410 Vegetation: fight</v>
       </c>
       <c r="E210" t="s">
@@ -5659,9 +5647,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4102</v>
       </c>
       <c r="B211">
@@ -5671,7 +5659,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>410 Vegetazione: attraversamento difficile</v>
       </c>
       <c r="E211" t="s">
@@ -5681,9 +5669,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4103</v>
       </c>
       <c r="B212">
@@ -5693,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="D212" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>410 text fr</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -5703,9 +5691,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4104</v>
       </c>
       <c r="B213">
@@ -5715,7 +5703,7 @@
         <v>11</v>
       </c>
       <c r="D213" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>410 text de</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -5725,9 +5713,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4121</v>
       </c>
       <c r="B214">
@@ -5737,7 +5725,7 @@
         <v>5</v>
       </c>
       <c r="D214" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>412 Cultivated land</v>
       </c>
       <c r="E214" t="s">
@@ -5747,9 +5735,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4122</v>
       </c>
       <c r="B215">
@@ -5759,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="D215" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>412 Terreno coltivato</v>
       </c>
       <c r="E215" t="s">
@@ -5769,9 +5757,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4123</v>
       </c>
       <c r="B216">
@@ -5781,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="D216" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>412 text fr</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -5791,9 +5779,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4124</v>
       </c>
       <c r="B217">
@@ -5803,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="D217" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>412 text de</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -5813,9 +5801,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4131</v>
       </c>
       <c r="B218">
@@ -5825,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="D218" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>413 Orchard</v>
       </c>
       <c r="E218" t="s">
@@ -5835,9 +5823,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4132</v>
       </c>
       <c r="B219">
@@ -5847,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="D219" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>413 Frutteto</v>
       </c>
       <c r="E219" t="s">
@@ -5857,9 +5845,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4133</v>
       </c>
       <c r="B220">
@@ -5869,7 +5857,7 @@
         <v>12</v>
       </c>
       <c r="D220" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>413 text fr</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -5879,9 +5867,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4134</v>
       </c>
       <c r="B221">
@@ -5891,7 +5879,7 @@
         <v>11</v>
       </c>
       <c r="D221" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>413 text de</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -5901,9 +5889,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4141</v>
       </c>
       <c r="B222">
@@ -5913,7 +5901,7 @@
         <v>5</v>
       </c>
       <c r="D222" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>414 Vineyard or similar</v>
       </c>
       <c r="E222" t="s">
@@ -5923,9 +5911,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4142</v>
       </c>
       <c r="B223">
@@ -5935,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="D223" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>414 Vigneto o simile</v>
       </c>
       <c r="E223" t="s">
@@ -5945,9 +5933,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4143</v>
       </c>
       <c r="B224">
@@ -5957,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="D224" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>414 text fr</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -5967,9 +5955,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4144</v>
       </c>
       <c r="B225">
@@ -5979,7 +5967,7 @@
         <v>11</v>
       </c>
       <c r="D225" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>414 text de</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -5989,9 +5977,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4151</v>
       </c>
       <c r="B226">
@@ -6001,7 +5989,7 @@
         <v>5</v>
       </c>
       <c r="D226" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>415 Distinct cultivation boundary</v>
       </c>
       <c r="E226" t="s">
@@ -6011,9 +5999,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4152</v>
       </c>
       <c r="B227">
@@ -6023,7 +6011,7 @@
         <v>4</v>
       </c>
       <c r="D227" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>415 Margine netto di coltivazione</v>
       </c>
       <c r="E227" t="s">
@@ -6033,9 +6021,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4153</v>
       </c>
       <c r="B228">
@@ -6045,7 +6033,7 @@
         <v>12</v>
       </c>
       <c r="D228" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>415 text fr</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -6055,9 +6043,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4154</v>
       </c>
       <c r="B229">
@@ -6067,7 +6055,7 @@
         <v>11</v>
       </c>
       <c r="D229" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>415 text de</v>
       </c>
       <c r="E229" s="1" t="s">
@@ -6077,9 +6065,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4161</v>
       </c>
       <c r="B230">
@@ -6089,7 +6077,7 @@
         <v>5</v>
       </c>
       <c r="D230" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>416 Distinct vegetation boundary</v>
       </c>
       <c r="E230" t="s">
@@ -6099,9 +6087,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4162</v>
       </c>
       <c r="B231">
@@ -6111,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="D231" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>416 Margine netto di vegetazione</v>
       </c>
       <c r="E231" t="s">
@@ -6121,9 +6109,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4163</v>
       </c>
       <c r="B232">
@@ -6133,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>416 text fr</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -6143,9 +6131,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4164</v>
       </c>
       <c r="B233">
@@ -6155,7 +6143,7 @@
         <v>11</v>
       </c>
       <c r="D233" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>416 text de</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -6165,9 +6153,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4171</v>
       </c>
       <c r="B234">
@@ -6177,7 +6165,7 @@
         <v>5</v>
       </c>
       <c r="D234" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>417 Prominent large tree</v>
       </c>
       <c r="E234" t="s">
@@ -6189,7 +6177,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4172</v>
       </c>
       <c r="B235">
@@ -6199,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="D235" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>417 Grande albero evidente</v>
       </c>
       <c r="E235" t="s">
@@ -6209,9 +6197,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4173</v>
       </c>
       <c r="B236">
@@ -6221,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="D236" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>417 text fr</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -6231,9 +6219,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4174</v>
       </c>
       <c r="B237">
@@ -6243,7 +6231,7 @@
         <v>11</v>
       </c>
       <c r="D237" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>417 text de</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -6253,9 +6241,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4181</v>
       </c>
       <c r="B238">
@@ -6265,7 +6253,7 @@
         <v>5</v>
       </c>
       <c r="D238" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>418 Prominent bush or tree</v>
       </c>
       <c r="E238" t="s">
@@ -6277,7 +6265,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4182</v>
       </c>
       <c r="B239">
@@ -6287,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="D239" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>418 Albero o cespuglio evidente</v>
       </c>
       <c r="E239" t="s">
@@ -6297,9 +6285,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4183</v>
       </c>
       <c r="B240">
@@ -6309,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="D240" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>418 text fr</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -6319,9 +6307,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4184</v>
       </c>
       <c r="B241">
@@ -6331,7 +6319,7 @@
         <v>11</v>
       </c>
       <c r="D241" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>418 text de</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -6341,9 +6329,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>4191</v>
       </c>
       <c r="B242">
@@ -6353,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="D242" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>419 Prominent vegetation feature</v>
       </c>
       <c r="E242" t="s">
@@ -6365,7 +6353,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>4192</v>
       </c>
       <c r="B243">
@@ -6375,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="D243" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>419 Oggetto vegetale evidente</v>
       </c>
       <c r="E243" t="s">
@@ -6385,9 +6373,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>4193</v>
       </c>
       <c r="B244">
@@ -6397,7 +6385,7 @@
         <v>12</v>
       </c>
       <c r="D244" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>419 text fr</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -6407,9 +6395,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>4194</v>
       </c>
       <c r="B245">
@@ -6419,7 +6407,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>419 text de</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -6429,9 +6417,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5011</v>
       </c>
       <c r="B246">
@@ -6441,7 +6429,7 @@
         <v>5</v>
       </c>
       <c r="D246" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>501 Paved area</v>
       </c>
       <c r="E246" t="s">
@@ -6451,9 +6439,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5012</v>
       </c>
       <c r="B247">
@@ -6463,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="D247" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>501 Area pavimentata</v>
       </c>
       <c r="E247" t="s">
@@ -6473,9 +6461,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5013</v>
       </c>
       <c r="B248">
@@ -6485,7 +6473,7 @@
         <v>12</v>
       </c>
       <c r="D248" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>501 text fr</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -6495,9 +6483,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5014</v>
       </c>
       <c r="B249">
@@ -6507,7 +6495,7 @@
         <v>11</v>
       </c>
       <c r="D249" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>501 text de</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -6517,9 +6505,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5021</v>
       </c>
       <c r="B250">
@@ -6529,7 +6517,7 @@
         <v>5</v>
       </c>
       <c r="D250" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>502 Wide road</v>
       </c>
       <c r="E250" t="s">
@@ -6539,9 +6527,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5022</v>
       </c>
       <c r="B251">
@@ -6551,7 +6539,7 @@
         <v>4</v>
       </c>
       <c r="D251" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>502 Strada principale</v>
       </c>
       <c r="E251" t="s">
@@ -6561,9 +6549,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5023</v>
       </c>
       <c r="B252">
@@ -6573,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="D252" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>502 text fr</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -6583,9 +6571,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5024</v>
       </c>
       <c r="B253">
@@ -6595,7 +6583,7 @@
         <v>11</v>
       </c>
       <c r="D253" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>502 text de</v>
       </c>
       <c r="E253" s="1" t="s">
@@ -6605,9 +6593,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5031</v>
       </c>
       <c r="B254">
@@ -6617,7 +6605,7 @@
         <v>5</v>
       </c>
       <c r="D254" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>503 Troad</v>
       </c>
       <c r="E254" t="s">
@@ -6627,9 +6615,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5032</v>
       </c>
       <c r="B255">
@@ -6639,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="D255" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>503 Strada</v>
       </c>
       <c r="E255" t="s">
@@ -6649,9 +6637,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5033</v>
       </c>
       <c r="B256">
@@ -6661,7 +6649,7 @@
         <v>12</v>
       </c>
       <c r="D256" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>503 text fr</v>
       </c>
       <c r="E256" s="1" t="s">
@@ -6671,9 +6659,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5034</v>
       </c>
       <c r="B257">
@@ -6683,7 +6671,7 @@
         <v>11</v>
       </c>
       <c r="D257" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>503 text de</v>
       </c>
       <c r="E257" s="1" t="s">
@@ -6693,9 +6681,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5041</v>
       </c>
       <c r="B258">
@@ -6705,7 +6693,7 @@
         <v>5</v>
       </c>
       <c r="D258" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>504 Vehicle track</v>
       </c>
       <c r="E258" t="s">
@@ -6715,9 +6703,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5042</v>
       </c>
       <c r="B259">
@@ -6727,7 +6715,7 @@
         <v>4</v>
       </c>
       <c r="D259" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>504 Carrareccia</v>
       </c>
       <c r="E259" t="s">
@@ -6737,9 +6725,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5043</v>
       </c>
       <c r="B260">
@@ -6749,7 +6737,7 @@
         <v>12</v>
       </c>
       <c r="D260" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>504 text fr</v>
       </c>
       <c r="E260" s="1" t="s">
@@ -6759,9 +6747,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5044</v>
       </c>
       <c r="B261">
@@ -6771,7 +6759,7 @@
         <v>11</v>
       </c>
       <c r="D261" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>504 text de</v>
       </c>
       <c r="E261" s="1" t="s">
@@ -6781,9 +6769,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5051</v>
       </c>
       <c r="B262">
@@ -6793,7 +6781,7 @@
         <v>5</v>
       </c>
       <c r="D262" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>505 Footpath</v>
       </c>
       <c r="E262" t="s">
@@ -6803,9 +6791,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5052</v>
       </c>
       <c r="B263">
@@ -6815,7 +6803,7 @@
         <v>4</v>
       </c>
       <c r="D263" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>505 Sentiero</v>
       </c>
       <c r="E263" t="s">
@@ -6825,9 +6813,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5053</v>
       </c>
       <c r="B264">
@@ -6837,7 +6825,7 @@
         <v>12</v>
       </c>
       <c r="D264" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>505 text fr</v>
       </c>
       <c r="E264" s="1" t="s">
@@ -6847,9 +6835,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5054</v>
       </c>
       <c r="B265">
@@ -6859,7 +6847,7 @@
         <v>11</v>
       </c>
       <c r="D265" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>505 text de</v>
       </c>
       <c r="E265" s="1" t="s">
@@ -6869,9 +6857,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5061</v>
       </c>
       <c r="B266">
@@ -6881,7 +6869,7 @@
         <v>5</v>
       </c>
       <c r="D266" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>506 Small footpath</v>
       </c>
       <c r="E266" t="s">
@@ -6891,9 +6879,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5062</v>
       </c>
       <c r="B267">
@@ -6903,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="D267" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>506 Piccolo sentiero</v>
       </c>
       <c r="E267" t="s">
@@ -6913,9 +6901,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5063</v>
       </c>
       <c r="B268">
@@ -6925,7 +6913,7 @@
         <v>12</v>
       </c>
       <c r="D268" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>506 text fr</v>
       </c>
       <c r="E268" s="1" t="s">
@@ -6935,9 +6923,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5064</v>
       </c>
       <c r="B269">
@@ -6947,7 +6935,7 @@
         <v>11</v>
       </c>
       <c r="D269" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>506 text de</v>
       </c>
       <c r="E269" s="1" t="s">
@@ -6957,9 +6945,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5071</v>
       </c>
       <c r="B270">
@@ -6969,7 +6957,7 @@
         <v>5</v>
       </c>
       <c r="D270" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>507 Less distinct small footpath</v>
       </c>
       <c r="E270" t="s">
@@ -6979,9 +6967,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5072</v>
       </c>
       <c r="B271">
@@ -6991,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="D271" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>507 Piccolo sentiero indistinto</v>
       </c>
       <c r="E271" t="s">
@@ -7001,9 +6989,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5073</v>
       </c>
       <c r="B272">
@@ -7013,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="D272" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>507 text fr</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -7023,9 +7011,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5074</v>
       </c>
       <c r="B273">
@@ -7035,7 +7023,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>507 text de</v>
       </c>
       <c r="E273" s="1" t="s">
@@ -7045,9 +7033,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5081</v>
       </c>
       <c r="B274">
@@ -7057,7 +7045,7 @@
         <v>5</v>
       </c>
       <c r="D274" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>508 Narrow ride or linear trace through the terrain</v>
       </c>
       <c r="E274" t="s">
@@ -7067,9 +7055,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5082</v>
       </c>
       <c r="B275">
@@ -7079,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="D275" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>508 Stretta pista o traccia lineare sul terreno</v>
       </c>
       <c r="E275" t="s">
@@ -7089,9 +7077,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5083</v>
       </c>
       <c r="B276">
@@ -7101,7 +7089,7 @@
         <v>12</v>
       </c>
       <c r="D276" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>508 text fr</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -7111,9 +7099,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5084</v>
       </c>
       <c r="B277">
@@ -7123,7 +7111,7 @@
         <v>11</v>
       </c>
       <c r="D277" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>508 text de</v>
       </c>
       <c r="E277" s="1" t="s">
@@ -7133,9 +7121,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5091</v>
       </c>
       <c r="B278">
@@ -7145,7 +7133,7 @@
         <v>5</v>
       </c>
       <c r="D278" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>509 Railway</v>
       </c>
       <c r="E278" t="s">
@@ -7155,9 +7143,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5092</v>
       </c>
       <c r="B279">
@@ -7167,7 +7155,7 @@
         <v>4</v>
       </c>
       <c r="D279" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>509 Ferrovia</v>
       </c>
       <c r="E279" t="s">
@@ -7177,9 +7165,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5093</v>
       </c>
       <c r="B280">
@@ -7189,7 +7177,7 @@
         <v>12</v>
       </c>
       <c r="D280" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>509 text fr</v>
       </c>
       <c r="E280" s="1" t="s">
@@ -7199,9 +7187,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5094</v>
       </c>
       <c r="B281">
@@ -7211,7 +7199,7 @@
         <v>11</v>
       </c>
       <c r="D281" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>509 text de</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -7221,9 +7209,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5101</v>
       </c>
       <c r="B282">
@@ -7233,7 +7221,7 @@
         <v>5</v>
       </c>
       <c r="D282" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>510 Power line, cableway or skilift</v>
       </c>
       <c r="E282" t="s">
@@ -7243,9 +7231,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5102</v>
       </c>
       <c r="B283">
@@ -7255,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="D283" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>510 Linea elettrica, funivia o skilift</v>
       </c>
       <c r="E283" t="s">
@@ -7265,9 +7253,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5103</v>
       </c>
       <c r="B284">
@@ -7277,7 +7265,7 @@
         <v>12</v>
       </c>
       <c r="D284" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>510 text fr</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -7287,9 +7275,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5104</v>
       </c>
       <c r="B285">
@@ -7299,7 +7287,7 @@
         <v>11</v>
       </c>
       <c r="D285" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>510 text de</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -7309,9 +7297,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5111</v>
       </c>
       <c r="B286">
@@ -7321,7 +7309,7 @@
         <v>5</v>
       </c>
       <c r="D286" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>511 Major power line</v>
       </c>
       <c r="E286" t="s">
@@ -7331,9 +7319,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5112</v>
       </c>
       <c r="B287">
@@ -7343,7 +7331,7 @@
         <v>4</v>
       </c>
       <c r="D287" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>511 Elettrodotto d'alta tensione</v>
       </c>
       <c r="E287" t="s">
@@ -7353,9 +7341,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5113</v>
       </c>
       <c r="B288">
@@ -7365,7 +7353,7 @@
         <v>12</v>
       </c>
       <c r="D288" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>511 text fr</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -7375,9 +7363,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5114</v>
       </c>
       <c r="B289">
@@ -7387,7 +7375,7 @@
         <v>11</v>
       </c>
       <c r="D289" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>511 text de</v>
       </c>
       <c r="E289" s="1" t="s">
@@ -7397,9 +7385,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5121</v>
       </c>
       <c r="B290">
@@ -7409,7 +7397,7 @@
         <v>5</v>
       </c>
       <c r="D290" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>512 Bridge / tunnel</v>
       </c>
       <c r="E290" t="s">
@@ -7419,9 +7407,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5122</v>
       </c>
       <c r="B291">
@@ -7431,7 +7419,7 @@
         <v>4</v>
       </c>
       <c r="D291" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>512 Ponte / galleria</v>
       </c>
       <c r="E291" t="s">
@@ -7441,9 +7429,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5123</v>
       </c>
       <c r="B292">
@@ -7453,7 +7441,7 @@
         <v>12</v>
       </c>
       <c r="D292" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>512 text fr</v>
       </c>
       <c r="E292" s="1" t="s">
@@ -7463,9 +7451,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5124</v>
       </c>
       <c r="B293">
@@ -7475,7 +7463,7 @@
         <v>11</v>
       </c>
       <c r="D293" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>512 text de</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -7485,9 +7473,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5131</v>
       </c>
       <c r="B294">
@@ -7497,7 +7485,7 @@
         <v>5</v>
       </c>
       <c r="D294" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>513 Wall</v>
       </c>
       <c r="E294" t="s">
@@ -7507,9 +7495,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5132</v>
       </c>
       <c r="B295">
@@ -7519,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="D295" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>513 Muretto</v>
       </c>
       <c r="E295" t="s">
@@ -7529,9 +7517,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5133</v>
       </c>
       <c r="B296">
@@ -7541,7 +7529,7 @@
         <v>12</v>
       </c>
       <c r="D296" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>513 text fr</v>
       </c>
       <c r="E296" s="1" t="s">
@@ -7551,9 +7539,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5134</v>
       </c>
       <c r="B297">
@@ -7563,7 +7551,7 @@
         <v>11</v>
       </c>
       <c r="D297" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>513 text de</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -7573,9 +7561,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5141</v>
       </c>
       <c r="B298">
@@ -7585,7 +7573,7 @@
         <v>5</v>
       </c>
       <c r="D298" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>514 Ruined wall</v>
       </c>
       <c r="E298" t="s">
@@ -7595,9 +7583,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5142</v>
       </c>
       <c r="B299">
@@ -7607,7 +7595,7 @@
         <v>4</v>
       </c>
       <c r="D299" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>514 Muretto diroccato</v>
       </c>
       <c r="E299" t="s">
@@ -7617,9 +7605,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5143</v>
       </c>
       <c r="B300">
@@ -7629,7 +7617,7 @@
         <v>12</v>
       </c>
       <c r="D300" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>514 text fr</v>
       </c>
       <c r="E300" s="1" t="s">
@@ -7639,9 +7627,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5144</v>
       </c>
       <c r="B301">
@@ -7651,7 +7639,7 @@
         <v>11</v>
       </c>
       <c r="D301" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>514 text de</v>
       </c>
       <c r="E301" s="1" t="s">
@@ -7661,9 +7649,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5151</v>
       </c>
       <c r="B302">
@@ -7673,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="D302" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>515 Impassable wall</v>
       </c>
       <c r="E302" t="s">
@@ -7683,9 +7671,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5152</v>
       </c>
       <c r="B303">
@@ -7695,7 +7683,7 @@
         <v>4</v>
       </c>
       <c r="D303" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>515 Muro non attraversabile</v>
       </c>
       <c r="E303" t="s">
@@ -7705,9 +7693,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5153</v>
       </c>
       <c r="B304">
@@ -7717,7 +7705,7 @@
         <v>12</v>
       </c>
       <c r="D304" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>515 text fr</v>
       </c>
       <c r="E304" s="1" t="s">
@@ -7727,9 +7715,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5154</v>
       </c>
       <c r="B305">
@@ -7739,7 +7727,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>515 text de</v>
       </c>
       <c r="E305" s="1" t="s">
@@ -7749,9 +7737,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5161</v>
       </c>
       <c r="B306">
@@ -7761,7 +7749,7 @@
         <v>5</v>
       </c>
       <c r="D306" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>516 Fence</v>
       </c>
       <c r="E306" t="s">
@@ -7771,9 +7759,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5162</v>
       </c>
       <c r="B307">
@@ -7783,7 +7771,7 @@
         <v>4</v>
       </c>
       <c r="D307" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>516 Recinzione</v>
       </c>
       <c r="E307" t="s">
@@ -7793,9 +7781,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5163</v>
       </c>
       <c r="B308">
@@ -7805,7 +7793,7 @@
         <v>12</v>
       </c>
       <c r="D308" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>516 text fr</v>
       </c>
       <c r="E308" s="1" t="s">
@@ -7815,9 +7803,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5164</v>
       </c>
       <c r="B309">
@@ -7827,7 +7815,7 @@
         <v>11</v>
       </c>
       <c r="D309" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>516 text de</v>
       </c>
       <c r="E309" s="1" t="s">
@@ -7837,9 +7825,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5171</v>
       </c>
       <c r="B310">
@@ -7849,7 +7837,7 @@
         <v>5</v>
       </c>
       <c r="D310" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>517 Ruined fence</v>
       </c>
       <c r="E310" t="s">
@@ -7859,9 +7847,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5172</v>
       </c>
       <c r="B311">
@@ -7871,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="D311" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>517 Recinzione in rovina</v>
       </c>
       <c r="E311" t="s">
@@ -7881,9 +7869,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5173</v>
       </c>
       <c r="B312">
@@ -7893,7 +7881,7 @@
         <v>12</v>
       </c>
       <c r="D312" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>517 text fr</v>
       </c>
       <c r="E312" s="1" t="s">
@@ -7903,9 +7891,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5174</v>
       </c>
       <c r="B313">
@@ -7915,7 +7903,7 @@
         <v>11</v>
       </c>
       <c r="D313" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>517 text de</v>
       </c>
       <c r="E313" s="1" t="s">
@@ -7925,9 +7913,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5181</v>
       </c>
       <c r="B314">
@@ -7937,7 +7925,7 @@
         <v>5</v>
       </c>
       <c r="D314" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>518 Impassable fence</v>
       </c>
       <c r="E314" t="s">
@@ -7947,9 +7935,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5182</v>
       </c>
       <c r="B315">
@@ -7959,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="D315" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>518 Recinto non attraversabile</v>
       </c>
       <c r="E315" t="s">
@@ -7969,9 +7957,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5183</v>
       </c>
       <c r="B316">
@@ -7981,7 +7969,7 @@
         <v>12</v>
       </c>
       <c r="D316" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>518 text fr</v>
       </c>
       <c r="E316" s="1" t="s">
@@ -7991,9 +7979,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5184</v>
       </c>
       <c r="B317">
@@ -8003,7 +7991,7 @@
         <v>11</v>
       </c>
       <c r="D317" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>518 text de</v>
       </c>
       <c r="E317" s="1" t="s">
@@ -8013,9 +8001,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5191</v>
       </c>
       <c r="B318">
@@ -8025,7 +8013,7 @@
         <v>5</v>
       </c>
       <c r="D318" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>519 Crossing point</v>
       </c>
       <c r="E318" t="s">
@@ -8037,7 +8025,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5192</v>
       </c>
       <c r="B319">
@@ -8047,7 +8035,7 @@
         <v>4</v>
       </c>
       <c r="D319" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>519 Punto di passaggio</v>
       </c>
       <c r="E319" t="s">
@@ -8057,9 +8045,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5193</v>
       </c>
       <c r="B320">
@@ -8069,7 +8057,7 @@
         <v>12</v>
       </c>
       <c r="D320" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>519 text fr</v>
       </c>
       <c r="E320" s="1" t="s">
@@ -8079,9 +8067,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5194</v>
       </c>
       <c r="B321">
@@ -8091,7 +8079,7 @@
         <v>11</v>
       </c>
       <c r="D321" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>519 text de</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -8101,9 +8089,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5201</v>
       </c>
       <c r="B322">
@@ -8113,7 +8101,7 @@
         <v>5</v>
       </c>
       <c r="D322" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>520 Area that shall not be entered</v>
       </c>
       <c r="E322" t="s">
@@ -8123,9 +8111,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5202</v>
       </c>
       <c r="B323">
@@ -8135,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="D323" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>520 Area vietata all'accesso</v>
       </c>
       <c r="E323" t="s">
@@ -8145,9 +8133,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5203</v>
       </c>
       <c r="B324">
@@ -8157,7 +8145,7 @@
         <v>12</v>
       </c>
       <c r="D324" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>520 text fr</v>
       </c>
       <c r="E324" s="1" t="s">
@@ -8167,9 +8155,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5204</v>
       </c>
       <c r="B325">
@@ -8179,7 +8167,7 @@
         <v>11</v>
       </c>
       <c r="D325" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>520 text de</v>
       </c>
       <c r="E325" s="1" t="s">
@@ -8189,9 +8177,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5211</v>
       </c>
       <c r="B326">
@@ -8201,7 +8189,7 @@
         <v>5</v>
       </c>
       <c r="D326" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>521 Building</v>
       </c>
       <c r="E326" t="s">
@@ -8211,9 +8199,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5212</v>
       </c>
       <c r="B327">
@@ -8223,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="D327" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>521 Edificio</v>
       </c>
       <c r="E327" t="s">
@@ -8233,9 +8221,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5213</v>
       </c>
       <c r="B328">
@@ -8245,7 +8233,7 @@
         <v>12</v>
       </c>
       <c r="D328" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>521 text fr</v>
       </c>
       <c r="E328" s="1" t="s">
@@ -8255,9 +8243,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5214</v>
       </c>
       <c r="B329">
@@ -8267,7 +8255,7 @@
         <v>11</v>
       </c>
       <c r="D329" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>521 text de</v>
       </c>
       <c r="E329" s="1" t="s">
@@ -8277,9 +8265,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5221</v>
       </c>
       <c r="B330">
@@ -8289,7 +8277,7 @@
         <v>5</v>
       </c>
       <c r="D330" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>522 Canopy</v>
       </c>
       <c r="E330" t="s">
@@ -8299,9 +8287,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5222</v>
       </c>
       <c r="B331">
@@ -8311,7 +8299,7 @@
         <v>4</v>
       </c>
       <c r="D331" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>522 Tettoia</v>
       </c>
       <c r="E331" t="s">
@@ -8321,9 +8309,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5223</v>
       </c>
       <c r="B332">
@@ -8333,7 +8321,7 @@
         <v>12</v>
       </c>
       <c r="D332" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>522 text fr</v>
       </c>
       <c r="E332" s="1" t="s">
@@ -8343,9 +8331,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5224</v>
       </c>
       <c r="B333">
@@ -8355,7 +8343,7 @@
         <v>11</v>
       </c>
       <c r="D333" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>522 text de</v>
       </c>
       <c r="E333" s="1" t="s">
@@ -8365,9 +8353,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5231</v>
       </c>
       <c r="B334">
@@ -8377,7 +8365,7 @@
         <v>5</v>
       </c>
       <c r="D334" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>523 Ruin</v>
       </c>
       <c r="E334" t="s">
@@ -8387,9 +8375,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5232</v>
       </c>
       <c r="B335">
@@ -8399,7 +8387,7 @@
         <v>4</v>
       </c>
       <c r="D335" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>523 Rudere</v>
       </c>
       <c r="E335" t="s">
@@ -8409,9 +8397,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5233</v>
       </c>
       <c r="B336">
@@ -8421,7 +8409,7 @@
         <v>12</v>
       </c>
       <c r="D336" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>523 text fr</v>
       </c>
       <c r="E336" s="1" t="s">
@@ -8431,9 +8419,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5234</v>
       </c>
       <c r="B337">
@@ -8443,7 +8431,7 @@
         <v>11</v>
       </c>
       <c r="D337" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>523 text de</v>
       </c>
       <c r="E337" s="1" t="s">
@@ -8453,9 +8441,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5241</v>
       </c>
       <c r="B338">
@@ -8465,7 +8453,7 @@
         <v>5</v>
       </c>
       <c r="D338" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>524 High tower</v>
       </c>
       <c r="E338" t="s">
@@ -8475,9 +8463,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5242</v>
       </c>
       <c r="B339">
@@ -8487,7 +8475,7 @@
         <v>12</v>
       </c>
       <c r="D339" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>524 text fr</v>
       </c>
       <c r="E339" s="1" t="s">
@@ -8497,9 +8485,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5243</v>
       </c>
       <c r="B340">
@@ -8509,7 +8497,7 @@
         <v>11</v>
       </c>
       <c r="D340" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>524 text de</v>
       </c>
       <c r="E340" s="1" t="s">
@@ -8519,9 +8507,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5254</v>
       </c>
       <c r="B341">
@@ -8531,7 +8519,7 @@
         <v>5</v>
       </c>
       <c r="D341" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>525 Small tower</v>
       </c>
       <c r="E341" t="s">
@@ -8543,7 +8531,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5251</v>
       </c>
       <c r="B342">
@@ -8553,7 +8541,7 @@
         <v>4</v>
       </c>
       <c r="D342" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>525 Piccola torre</v>
       </c>
       <c r="E342" t="s">
@@ -8563,9 +8551,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5252</v>
       </c>
       <c r="B343">
@@ -8575,7 +8563,7 @@
         <v>12</v>
       </c>
       <c r="D343" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>525 text fr</v>
       </c>
       <c r="E343" s="1" t="s">
@@ -8585,9 +8573,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5253</v>
       </c>
       <c r="B344">
@@ -8597,7 +8585,7 @@
         <v>11</v>
       </c>
       <c r="D344" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>525 text de</v>
       </c>
       <c r="E344" s="1" t="s">
@@ -8607,9 +8595,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5264</v>
       </c>
       <c r="B345">
@@ -8619,7 +8607,7 @@
         <v>5</v>
       </c>
       <c r="D345" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>526 Cairn</v>
       </c>
       <c r="E345" t="s">
@@ -8631,7 +8619,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5261</v>
       </c>
       <c r="B346">
@@ -8641,7 +8629,7 @@
         <v>4</v>
       </c>
       <c r="D346" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>526 Cippo</v>
       </c>
       <c r="E346" t="s">
@@ -8651,9 +8639,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5262</v>
       </c>
       <c r="B347">
@@ -8663,7 +8651,7 @@
         <v>12</v>
       </c>
       <c r="D347" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>526 text fr</v>
       </c>
       <c r="E347" s="1" t="s">
@@ -8673,9 +8661,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5263</v>
       </c>
       <c r="B348">
@@ -8685,7 +8673,7 @@
         <v>11</v>
       </c>
       <c r="D348" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>526 text de</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -8695,9 +8683,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5274</v>
       </c>
       <c r="B349">
@@ -8707,7 +8695,7 @@
         <v>5</v>
       </c>
       <c r="D349" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>527 Fodder rack</v>
       </c>
       <c r="E349" t="s">
@@ -8719,7 +8707,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5271</v>
       </c>
       <c r="B350">
@@ -8729,7 +8717,7 @@
         <v>4</v>
       </c>
       <c r="D350" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>527 Mangiatoia</v>
       </c>
       <c r="E350" t="s">
@@ -8739,9 +8727,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5272</v>
       </c>
       <c r="B351">
@@ -8751,7 +8739,7 @@
         <v>12</v>
       </c>
       <c r="D351" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>527 text fr</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -8761,9 +8749,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5273</v>
       </c>
       <c r="B352">
@@ -8773,7 +8761,7 @@
         <v>11</v>
       </c>
       <c r="D352" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>527 text de</v>
       </c>
       <c r="E352" s="1" t="s">
@@ -8783,9 +8771,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5284</v>
       </c>
       <c r="B353">
@@ -8795,7 +8783,7 @@
         <v>5</v>
       </c>
       <c r="D353" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>528 Prominent line feature</v>
       </c>
       <c r="E353" t="s">
@@ -8805,9 +8793,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5281</v>
       </c>
       <c r="B354">
@@ -8817,7 +8805,7 @@
         <v>4</v>
       </c>
       <c r="D354" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>528 Oggetto lineare evidente</v>
       </c>
       <c r="E354" t="s">
@@ -8827,9 +8815,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5282</v>
       </c>
       <c r="B355">
@@ -8839,7 +8827,7 @@
         <v>12</v>
       </c>
       <c r="D355" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>528 text fr</v>
       </c>
       <c r="E355" s="1" t="s">
@@ -8849,9 +8837,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5283</v>
       </c>
       <c r="B356">
@@ -8861,7 +8849,7 @@
         <v>11</v>
       </c>
       <c r="D356" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>528 text de</v>
       </c>
       <c r="E356" s="1" t="s">
@@ -8871,9 +8859,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5294</v>
       </c>
       <c r="B357">
@@ -8883,7 +8871,7 @@
         <v>5</v>
       </c>
       <c r="D357" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>529 Prominent impassable line feature</v>
       </c>
       <c r="E357" t="s">
@@ -8893,9 +8881,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5291</v>
       </c>
       <c r="B358">
@@ -8905,7 +8893,7 @@
         <v>4</v>
       </c>
       <c r="D358" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>529 Evidente oggetto lineare non attraversabile</v>
       </c>
       <c r="E358" t="s">
@@ -8915,9 +8903,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5292</v>
       </c>
       <c r="B359">
@@ -8927,7 +8915,7 @@
         <v>12</v>
       </c>
       <c r="D359" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>529 text fr</v>
       </c>
       <c r="E359" s="1" t="s">
@@ -8937,9 +8925,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5293</v>
       </c>
       <c r="B360">
@@ -8949,7 +8937,7 @@
         <v>11</v>
       </c>
       <c r="D360" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>529 text de</v>
       </c>
       <c r="E360" s="1" t="s">
@@ -8959,9 +8947,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5304</v>
       </c>
       <c r="B361">
@@ -8971,7 +8959,7 @@
         <v>5</v>
       </c>
       <c r="D361" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>530 Prominent man-made feature - ring</v>
       </c>
       <c r="E361" t="s">
@@ -8983,7 +8971,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5301</v>
       </c>
       <c r="B362">
@@ -8993,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="D362" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>530 Evidente oggetto artificiale - cerchio</v>
       </c>
       <c r="E362" t="s">
@@ -9003,9 +8991,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5302</v>
       </c>
       <c r="B363">
@@ -9015,7 +9003,7 @@
         <v>12</v>
       </c>
       <c r="D363" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>530 text fr</v>
       </c>
       <c r="E363" s="1" t="s">
@@ -9025,9 +9013,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5303</v>
       </c>
       <c r="B364">
@@ -9037,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="D364" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>530 text de</v>
       </c>
       <c r="E364" s="1" t="s">
@@ -9047,9 +9035,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5314</v>
       </c>
       <c r="B365">
@@ -9059,7 +9047,7 @@
         <v>5</v>
       </c>
       <c r="D365" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>531 Prominent man-made feature - x</v>
       </c>
       <c r="E365" t="s">
@@ -9071,7 +9059,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5311</v>
       </c>
       <c r="B366">
@@ -9081,7 +9069,7 @@
         <v>4</v>
       </c>
       <c r="D366" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>531 Evidente oggetto artificiale - x</v>
       </c>
       <c r="E366" t="s">
@@ -9091,9 +9079,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5312</v>
       </c>
       <c r="B367">
@@ -9103,7 +9091,7 @@
         <v>12</v>
       </c>
       <c r="D367" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>531 text fr</v>
       </c>
       <c r="E367" s="1" t="s">
@@ -9113,9 +9101,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5313</v>
       </c>
       <c r="B368">
@@ -9125,7 +9113,7 @@
         <v>11</v>
       </c>
       <c r="D368" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>531 text de</v>
       </c>
       <c r="E368" s="1" t="s">
@@ -9135,9 +9123,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5324</v>
       </c>
       <c r="B369">
@@ -9147,7 +9135,7 @@
         <v>5</v>
       </c>
       <c r="D369" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>532 Stairway</v>
       </c>
       <c r="E369" t="s">
@@ -9157,9 +9145,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"1")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>5321</v>
       </c>
       <c r="B370">
@@ -9169,7 +9157,7 @@
         <v>4</v>
       </c>
       <c r="D370" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>532 Scalinata</v>
       </c>
       <c r="E370" t="s">
@@ -9179,9 +9167,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"2")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>5322</v>
       </c>
       <c r="B371">
@@ -9191,7 +9179,7 @@
         <v>12</v>
       </c>
       <c r="D371" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>532 text fr</v>
       </c>
       <c r="E371" s="1" t="s">
@@ -9201,9 +9189,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"3")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>5323</v>
       </c>
       <c r="B372">
@@ -9213,7 +9201,7 @@
         <v>11</v>
       </c>
       <c r="D372" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>532 text de</v>
       </c>
       <c r="E372" s="1" t="s">
@@ -9225,7 +9213,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]],"4")</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5344</v>
       </c>
       <c r="B373">
@@ -9235,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="D373" t="str">
-        <f>_xlfn.CONCAT(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
         <v>534 Torre alta, traliccio</v>
       </c>
       <c r="E373" t="s">
@@ -9253,14 +9241,14 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62100C4F-4C4C-450C-A6BA-C0EB9481C3B1}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F373</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E471AB2C-4EFF-40B1-86DD-4F999CB71307}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$5</xm:f>
           </x14:formula1>
@@ -9273,7 +9261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F824EFE-D210-477C-B8FC-03B3BE893EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/models/ISOM_Symbols_Catalogue.xlsx
+++ b/models/ISOM_Symbols_Catalogue.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="241">
   <si>
     <t>id</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Wide road</t>
   </si>
   <si>
-    <t>Troad</t>
-  </si>
-  <si>
     <t>Vehicle track</t>
   </si>
   <si>
@@ -528,9 +525,6 @@
     <t>Area pavimentata</t>
   </si>
   <si>
-    <t>Strada principale</t>
-  </si>
-  <si>
     <t>Strada</t>
   </si>
   <si>
@@ -631,13 +625,136 @@
   </si>
   <si>
     <t>description_shorttext</t>
+  </si>
+  <si>
+    <t>Punto altimetrico</t>
+  </si>
+  <si>
+    <t>Spot height</t>
+  </si>
+  <si>
+    <t>Track end point</t>
+  </si>
+  <si>
+    <t>Punto di fine sentiero</t>
+  </si>
+  <si>
+    <t>Paved road</t>
+  </si>
+  <si>
+    <t>Strada asfaltata</t>
+  </si>
+  <si>
+    <t>Track: fast riding</t>
+  </si>
+  <si>
+    <t>Sentiero: corsa veloce</t>
+  </si>
+  <si>
+    <t>Pista: corsa veloce</t>
+  </si>
+  <si>
+    <t>Path: fast riding</t>
+  </si>
+  <si>
+    <t>Track: medium riding</t>
+  </si>
+  <si>
+    <t>Sentiero: corsa media</t>
+  </si>
+  <si>
+    <t>Pista: corsa media</t>
+  </si>
+  <si>
+    <t>Path: medium riding</t>
+  </si>
+  <si>
+    <t>Track: slow riding</t>
+  </si>
+  <si>
+    <t>Sentiero: corsa lenta</t>
+  </si>
+  <si>
+    <t>Path: slow riding</t>
+  </si>
+  <si>
+    <t>Pista: corsa lenta</t>
+  </si>
+  <si>
+    <t>Track: very slow riding</t>
+  </si>
+  <si>
+    <t>Sentiero: corsa molto lenta</t>
+  </si>
+  <si>
+    <t>Pista: corsa molto lenta</t>
+  </si>
+  <si>
+    <t>Path: very slow riding</t>
+  </si>
+  <si>
+    <t>Open land, permitted ride</t>
+  </si>
+  <si>
+    <t>Terreno aperto, corsa permessa</t>
+  </si>
+  <si>
+    <t>Forested area, permitted to ride</t>
+  </si>
+  <si>
+    <t>Rough open land, permitted to ride</t>
+  </si>
+  <si>
+    <t>Terreno aperto impervio corsa permessa</t>
+  </si>
+  <si>
+    <t>Narrow ride or linear trace through the terrain, permitted to ride: fast riding</t>
+  </si>
+  <si>
+    <t>Passaggio stretto o traccia lineare attraverso il terreno: corsa veloce</t>
+  </si>
+  <si>
+    <t>Narrow ride or linear trace through the terrain, permitted to ride: medium riding</t>
+  </si>
+  <si>
+    <t>Passaggio stretto o traccia lineare attraverso il terreno: corsa media</t>
+  </si>
+  <si>
+    <t>Passaggio stretto o traccia lineare attraverso il terreno: corsa lenta</t>
+  </si>
+  <si>
+    <t>Narrow ride or linear trace through the terrain, permitted to ride: slow riding</t>
+  </si>
+  <si>
+    <t>Passaggio stretto o traccia lineare attraverso il terreno: corsa molto lenta</t>
+  </si>
+  <si>
+    <t>Narrow ride or linear trace through the terrain, permitted to ride: very slow riding</t>
+  </si>
+  <si>
+    <t>Out-of-bounds area</t>
+  </si>
+  <si>
+    <t>Area fuori gara</t>
+  </si>
+  <si>
+    <t>MTBO</t>
+  </si>
+  <si>
+    <t>Selvicoltura, corsa permessa</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Alta torre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +765,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,9 +796,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -698,12 +822,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F373" totalsRowShown="0">
-  <autoFilter ref="A1:F373"/>
-  <sortState ref="A2:F373">
-    <sortCondition ref="B1:B373"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G449" totalsRowShown="0">
+  <autoFilter ref="A1:G449"/>
+  <sortState ref="A2:F452">
+    <sortCondition ref="A1:A452"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="code"/>
     <tableColumn id="3" name="description_lang"/>
@@ -712,6 +836,7 @@
     </tableColumn>
     <tableColumn id="4" name="description_shorttext"/>
     <tableColumn id="5" name="geom_type"/>
+    <tableColumn id="7" name="MTBO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1014,22 +1139,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D373"/>
+      <selection activeCell="G434" sqref="G418:G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,13 +1169,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1011</v>
@@ -1070,8 +1199,11 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1012</v>
@@ -1087,13 +1219,16 @@
         <v>101 Curva di livello</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1013</v>
@@ -1109,13 +1244,16 @@
         <v>101 text fr</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1014</v>
@@ -1131,13 +1269,16 @@
         <v>101 text de</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1021</v>
@@ -1158,8 +1299,11 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1022</v>
@@ -1175,13 +1319,16 @@
         <v>102 Curva direttrice</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1023</v>
@@ -1197,13 +1344,16 @@
         <v>102 text fr</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1024</v>
@@ -1219,13 +1369,16 @@
         <v>102 text de</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1031</v>
@@ -1246,8 +1399,11 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1032</v>
@@ -1263,13 +1419,16 @@
         <v>103 Curva ausiliaria</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1033</v>
@@ -1285,13 +1444,16 @@
         <v>103 text fr</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1034</v>
@@ -1307,13 +1469,16 @@
         <v>103 text de</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1041</v>
@@ -1334,8 +1499,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1042</v>
@@ -1351,13 +1519,16 @@
         <v>104 Scarpata</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1043</v>
@@ -1373,13 +1544,16 @@
         <v>104 text fr</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1044</v>
@@ -1395,13 +1569,16 @@
         <v>104 text de</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1051</v>
@@ -1422,8 +1599,11 @@
       <c r="F18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1052</v>
@@ -1439,13 +1619,16 @@
         <v>105 Muro di terra (terrapieno)</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1053</v>
@@ -1461,13 +1644,16 @@
         <v>105 text fr</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1054</v>
@@ -1483,13 +1669,16 @@
         <v>105 text de</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1061</v>
@@ -1510,8 +1699,11 @@
       <c r="F22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1062</v>
@@ -1527,13 +1719,16 @@
         <v>106 Muro di terra (terrapieno) diroccato</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1063</v>
@@ -1549,13 +1744,16 @@
         <v>106 text fr</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1064</v>
@@ -1571,13 +1769,16 @@
         <v>106 text de</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1071</v>
@@ -1598,8 +1799,11 @@
       <c r="F26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1072</v>
@@ -1615,13 +1819,16 @@
         <v>107 Fossa d'erosione</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1073</v>
@@ -1637,13 +1844,16 @@
         <v>107 text fr</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1074</v>
@@ -1659,13 +1869,16 @@
         <v>107 text de</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1081</v>
@@ -1686,8 +1899,11 @@
       <c r="F30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1082</v>
@@ -1703,13 +1919,16 @@
         <v>108 Canaletto asciutto</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1083</v>
@@ -1725,13 +1944,16 @@
         <v>108 text fr</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1084</v>
@@ -1747,13 +1969,16 @@
         <v>108 text de</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1091</v>
@@ -1772,10 +1997,13 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1092</v>
@@ -1791,13 +2019,16 @@
         <v>109 Cocuzzolo</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1093</v>
@@ -1813,13 +2044,16 @@
         <v>109 text fr</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" t="s">
         <v>198</v>
       </c>
-      <c r="F36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1094</v>
@@ -1835,13 +2069,16 @@
         <v>109 text de</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1101</v>
@@ -1860,10 +2097,10 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1102</v>
@@ -1879,13 +2116,13 @@
         <v>110 Cocuzzolo allungato</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1103</v>
@@ -1901,13 +2138,13 @@
         <v>110 text fr</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
         <v>198</v>
       </c>
-      <c r="F40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1104</v>
@@ -1923,13 +2160,13 @@
         <v>110 text de</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1111</v>
@@ -1948,10 +2185,10 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1112</v>
@@ -1967,13 +2204,13 @@
         <v>111 Piccola depressione</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1113</v>
@@ -1989,13 +2226,13 @@
         <v>111 text fr</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" t="s">
         <v>198</v>
       </c>
-      <c r="F44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1114</v>
@@ -2011,13 +2248,13 @@
         <v>111 text de</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1121</v>
@@ -2036,10 +2273,10 @@
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1122</v>
@@ -2055,13 +2292,13 @@
         <v>112 Buca</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1123</v>
@@ -2077,13 +2314,13 @@
         <v>112 text fr</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" t="s">
         <v>198</v>
       </c>
-      <c r="F48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1124</v>
@@ -2099,13 +2336,13 @@
         <v>112 text de</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1131</v>
@@ -2127,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1132</v>
@@ -2143,13 +2380,13 @@
         <v>113 Terreno sconnesso</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1133</v>
@@ -2165,13 +2402,13 @@
         <v>113 text fr</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1134</v>
@@ -2187,13 +2424,13 @@
         <v>113 text de</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1141</v>
@@ -2215,7 +2452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1142</v>
@@ -2231,13 +2468,13 @@
         <v>114 Terreno molto sconnesso</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1143</v>
@@ -2253,13 +2490,13 @@
         <v>114 text fr</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1144</v>
@@ -2275,13 +2512,13 @@
         <v>114 text de</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>1151</v>
@@ -2300,10 +2537,10 @@
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>1152</v>
@@ -2319,13 +2556,13 @@
         <v>115 Evidente oggetto particolare nel terreno</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>1153</v>
@@ -2341,13 +2578,13 @@
         <v>115 text fr</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" t="s">
         <v>198</v>
       </c>
-      <c r="F60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>1154</v>
@@ -2363,13 +2600,13 @@
         <v>115 text de</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2011</v>
@@ -2390,8 +2627,11 @@
       <c r="F62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2012</v>
@@ -2407,13 +2647,16 @@
         <v>201 Parete non attraversabile</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2013</v>
@@ -2429,13 +2672,16 @@
         <v>201 text fr</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2014</v>
@@ -2451,13 +2697,16 @@
         <v>201 text de</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2021</v>
@@ -2479,7 +2728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2022</v>
@@ -2495,13 +2744,13 @@
         <v>202 Parete di roccia</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2023</v>
@@ -2517,13 +2766,13 @@
         <v>202 text fr</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2024</v>
@@ -2539,13 +2788,13 @@
         <v>202 text de</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2031</v>
@@ -2564,10 +2813,10 @@
         <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2032</v>
@@ -2583,13 +2832,13 @@
         <v>203 Buca rocciosa o cavernosa</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2033</v>
@@ -2605,13 +2854,13 @@
         <v>203 text fr</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" t="s">
         <v>198</v>
       </c>
-      <c r="F72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2034</v>
@@ -2627,13 +2876,13 @@
         <v>203 text de</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2041</v>
@@ -2652,10 +2901,10 @@
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2042</v>
@@ -2671,13 +2920,13 @@
         <v>204 Masso</v>
       </c>
       <c r="E75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2043</v>
@@ -2693,13 +2942,13 @@
         <v>204 text fr</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" t="s">
         <v>198</v>
       </c>
-      <c r="F76" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>2044</v>
@@ -2715,13 +2964,13 @@
         <v>204 text de</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F77" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>2051</v>
@@ -2740,10 +2989,10 @@
         <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>2052</v>
@@ -2759,13 +3008,13 @@
         <v>205 Grande masso</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F79" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>2053</v>
@@ -2781,10 +3030,10 @@
         <v>205 text fr</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" t="s">
         <v>198</v>
-      </c>
-      <c r="F80" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2803,10 +3052,10 @@
         <v>205 text de</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,7 +3096,7 @@
         <v>206 Masso enorme o pilastro di roccia</v>
       </c>
       <c r="E83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
@@ -2869,7 +3118,7 @@
         <v>206 text fr</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
@@ -2891,7 +3140,7 @@
         <v>206 text de</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
@@ -2916,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,10 +3184,10 @@
         <v>207 Cumulo di massi</v>
       </c>
       <c r="E87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,10 +3206,10 @@
         <v>207 text fr</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88" t="s">
         <v>198</v>
-      </c>
-      <c r="F88" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2979,10 +3228,10 @@
         <v>207 text de</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3023,7 +3272,7 @@
         <v>208 Massi sparsi</v>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
@@ -3045,7 +3294,7 @@
         <v>208 text fr</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F92" t="s">
         <v>8</v>
@@ -3067,7 +3316,7 @@
         <v>208 text de</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
@@ -3111,7 +3360,7 @@
         <v>209 Massi densamente sparsi</v>
       </c>
       <c r="E95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F95" t="s">
         <v>8</v>
@@ -3133,7 +3382,7 @@
         <v>209 text fr</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F96" t="s">
         <v>8</v>
@@ -3155,7 +3404,7 @@
         <v>209 text de</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
@@ -3199,7 +3448,7 @@
         <v>210 Terreno sassoso, corsa lenta</v>
       </c>
       <c r="E99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F99" t="s">
         <v>8</v>
@@ -3221,7 +3470,7 @@
         <v>210 text fr</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
         <v>8</v>
@@ -3243,7 +3492,7 @@
         <v>210 text de</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
         <v>8</v>
@@ -3287,7 +3536,7 @@
         <v>211 Terreno sassoso, al passo</v>
       </c>
       <c r="E103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
@@ -3309,7 +3558,7 @@
         <v>211 text fr</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
         <v>8</v>
@@ -3331,7 +3580,7 @@
         <v>211 text de</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
         <v>8</v>
@@ -3375,7 +3624,7 @@
         <v>212 Terreno sassoso, attraversamento difficile</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
@@ -3397,7 +3646,7 @@
         <v>212 text fr</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
         <v>8</v>
@@ -3419,7 +3668,7 @@
         <v>212 text de</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F109" t="s">
         <v>8</v>
@@ -3463,7 +3712,7 @@
         <v>213 Terreno sabbioso</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F111" t="s">
         <v>8</v>
@@ -3485,7 +3734,7 @@
         <v>213 text fr</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
         <v>8</v>
@@ -3507,7 +3756,7 @@
         <v>213 text de</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F113" t="s">
         <v>8</v>
@@ -3551,7 +3800,7 @@
         <v>214 Roccia nuda</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F115" t="s">
         <v>8</v>
@@ -3573,7 +3822,7 @@
         <v>214 text fr</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F116" t="s">
         <v>8</v>
@@ -3595,7 +3844,7 @@
         <v>214 text de</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F117" t="s">
         <v>8</v>
@@ -3639,7 +3888,7 @@
         <v>215 Trincea</v>
       </c>
       <c r="E119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
@@ -3661,7 +3910,7 @@
         <v>215 text fr</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
@@ -3683,7 +3932,7 @@
         <v>215 text de</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F121" t="s">
         <v>7</v>
@@ -3727,7 +3976,7 @@
         <v>301 Specchio d'acqua non attraversabile</v>
       </c>
       <c r="E123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F123" t="s">
         <v>8</v>
@@ -3749,7 +3998,7 @@
         <v>301 text fr</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F124" t="s">
         <v>8</v>
@@ -3771,7 +4020,7 @@
         <v>301 text de</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F125" t="s">
         <v>8</v>
@@ -3815,7 +4064,7 @@
         <v>302 Specchio d'acqua poco profondo</v>
       </c>
       <c r="E127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F127" t="s">
         <v>8</v>
@@ -3837,13 +4086,13 @@
         <v>302 text fr</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F128" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3024</v>
@@ -3859,13 +4108,13 @@
         <v>302 text de</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F129" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3031</v>
@@ -3884,10 +4133,10 @@
         <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3032</v>
@@ -3903,13 +4152,13 @@
         <v>303 Buca d'acqua</v>
       </c>
       <c r="E131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F131" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3033</v>
@@ -3925,13 +4174,13 @@
         <v>303 text fr</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" t="s">
         <v>198</v>
       </c>
-      <c r="F132" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3034</v>
@@ -3947,13 +4196,13 @@
         <v>303 text de</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F133" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3041</v>
@@ -3974,8 +4223,11 @@
       <c r="F134" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3042</v>
@@ -3991,13 +4243,16 @@
         <v>304 Corso d'acqua attraversabile</v>
       </c>
       <c r="E135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3043</v>
@@ -4013,13 +4268,16 @@
         <v>304 text fr</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3044</v>
@@ -4035,13 +4293,16 @@
         <v>304 text de</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3051</v>
@@ -4062,8 +4323,11 @@
       <c r="F138" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3052</v>
@@ -4079,13 +4343,16 @@
         <v>305 Piccolo corso d'acqua attraversabile</v>
       </c>
       <c r="E139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3053</v>
@@ -4101,13 +4368,16 @@
         <v>305 text fr</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F140" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3054</v>
@@ -4123,13 +4393,16 @@
         <v>305 text de</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F141" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3061</v>
@@ -4150,8 +4423,11 @@
       <c r="F142" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3062</v>
@@ -4167,13 +4443,16 @@
         <v>306 Canale d'acqua secondario/stagionale</v>
       </c>
       <c r="E143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3063</v>
@@ -4189,13 +4468,16 @@
         <v>306 text fr</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3064</v>
@@ -4211,13 +4493,16 @@
         <v>306 text de</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3071</v>
@@ -4239,7 +4524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3072</v>
@@ -4255,13 +4540,13 @@
         <v>307 Palude non attraversabile</v>
       </c>
       <c r="E147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F147" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3073</v>
@@ -4277,13 +4562,13 @@
         <v>307 text fr</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F148" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3074</v>
@@ -4299,13 +4584,13 @@
         <v>307 text de</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F149" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3081</v>
@@ -4327,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3082</v>
@@ -4343,13 +4628,13 @@
         <v>308 Palude</v>
       </c>
       <c r="E151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F151" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3083</v>
@@ -4365,13 +4650,13 @@
         <v>308 text fr</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F152" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3084</v>
@@ -4387,13 +4672,13 @@
         <v>308 text de</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F153" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3091</v>
@@ -4415,7 +4700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3092</v>
@@ -4431,13 +4716,13 @@
         <v>309 Palude stretta</v>
       </c>
       <c r="E155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F155" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3093</v>
@@ -4453,13 +4738,13 @@
         <v>309 text fr</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F156" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>3094</v>
@@ -4475,13 +4760,13 @@
         <v>309 text de</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
         <v>3101</v>
@@ -4503,7 +4788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
         <v>3102</v>
@@ -4519,13 +4804,13 @@
         <v>310 Palude poco evidente</v>
       </c>
       <c r="E159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F159" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
         <v>3103</v>
@@ -4541,7 +4826,7 @@
         <v>310 text fr</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F160" t="s">
         <v>8</v>
@@ -4563,7 +4848,7 @@
         <v>310 text de</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F161" t="s">
         <v>8</v>
@@ -4588,7 +4873,7 @@
         <v>52</v>
       </c>
       <c r="F162" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4607,10 +4892,10 @@
         <v>311 Pozzo, fontana o cisterna</v>
       </c>
       <c r="E163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F163" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4629,10 +4914,10 @@
         <v>311 text fr</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F164" t="s">
         <v>198</v>
-      </c>
-      <c r="F164" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4651,10 +4936,10 @@
         <v>311 text de</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F165" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4676,7 +4961,7 @@
         <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4695,10 +4980,10 @@
         <v>312 Sorgente</v>
       </c>
       <c r="E167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F167" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4717,10 +5002,10 @@
         <v>312 text fr</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F168" t="s">
         <v>198</v>
-      </c>
-      <c r="F168" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,10 +5024,10 @@
         <v>312 text de</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F169" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4764,7 +5049,7 @@
         <v>54</v>
       </c>
       <c r="F170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4783,10 +5068,10 @@
         <v>313 Oggetto idrico evidente</v>
       </c>
       <c r="E171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F171" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,10 +5090,10 @@
         <v>313 text fr</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F172" t="s">
         <v>198</v>
-      </c>
-      <c r="F172" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4827,10 +5112,10 @@
         <v>313 text de</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F173" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4871,7 +5156,7 @@
         <v>401 Terreno aperto</v>
       </c>
       <c r="E175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F175" t="s">
         <v>8</v>
@@ -4893,7 +5178,7 @@
         <v>401 text fr</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F176" t="s">
         <v>8</v>
@@ -4915,7 +5200,7 @@
         <v>401 text de</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F177" t="s">
         <v>8</v>
@@ -4959,7 +5244,7 @@
         <v>402 Terreno aperto con alberi sparsi</v>
       </c>
       <c r="E179" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F179" t="s">
         <v>8</v>
@@ -4981,7 +5266,7 @@
         <v>402 text fr</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F180" t="s">
         <v>8</v>
@@ -5003,7 +5288,7 @@
         <v>402 text de</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F181" t="s">
         <v>8</v>
@@ -5047,7 +5332,7 @@
         <v>403 Terreno aperto grezzo</v>
       </c>
       <c r="E183" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F183" t="s">
         <v>8</v>
@@ -5069,7 +5354,7 @@
         <v>403 text fr</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F184" t="s">
         <v>8</v>
@@ -5091,7 +5376,7 @@
         <v>403 text de</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F185" t="s">
         <v>8</v>
@@ -5135,7 +5420,7 @@
         <v>404 Terreno aperto grezzo con alberi sparsi</v>
       </c>
       <c r="E187" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F187" t="s">
         <v>8</v>
@@ -5157,7 +5442,7 @@
         <v>404 text fr</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F188" t="s">
         <v>8</v>
@@ -5179,7 +5464,7 @@
         <v>404 text de</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F189" t="s">
         <v>8</v>
@@ -5223,7 +5508,7 @@
         <v>405 Bosco</v>
       </c>
       <c r="E191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F191" t="s">
         <v>8</v>
@@ -5245,7 +5530,7 @@
         <v>405 text fr</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F192" t="s">
         <v>8</v>
@@ -5267,7 +5552,7 @@
         <v>405 text de</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F193" t="s">
         <v>8</v>
@@ -5311,7 +5596,7 @@
         <v>406 Vegetazione: corsa lenta</v>
       </c>
       <c r="E195" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F195" t="s">
         <v>8</v>
@@ -5333,7 +5618,7 @@
         <v>406 text fr</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F196" t="s">
         <v>8</v>
@@ -5355,7 +5640,7 @@
         <v>406 text de</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F197" t="s">
         <v>8</v>
@@ -5399,7 +5684,7 @@
         <v>407 Vegetazione: corsa lenta, buona visibilità</v>
       </c>
       <c r="E199" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F199" t="s">
         <v>8</v>
@@ -5421,7 +5706,7 @@
         <v>407 text fr</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F200" t="s">
         <v>8</v>
@@ -5443,7 +5728,7 @@
         <v>407 text de</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F201" t="s">
         <v>8</v>
@@ -5487,7 +5772,7 @@
         <v>408 Vegetazione: corsa molto ostacolata</v>
       </c>
       <c r="E203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F203" t="s">
         <v>8</v>
@@ -5509,7 +5794,7 @@
         <v>408 text fr</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F204" t="s">
         <v>8</v>
@@ -5531,7 +5816,7 @@
         <v>408 text de</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F205" t="s">
         <v>8</v>
@@ -5575,7 +5860,7 @@
         <v>409 Vegetazione: corsa molto ostacolata, buona visibilità</v>
       </c>
       <c r="E207" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F207" t="s">
         <v>8</v>
@@ -5597,7 +5882,7 @@
         <v>409 text fr</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F208" t="s">
         <v>8</v>
@@ -5619,7 +5904,7 @@
         <v>409 text de</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F209" t="s">
         <v>8</v>
@@ -5663,7 +5948,7 @@
         <v>410 Vegetazione: attraversamento difficile</v>
       </c>
       <c r="E211" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F211" t="s">
         <v>8</v>
@@ -5685,7 +5970,7 @@
         <v>410 text fr</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F212" t="s">
         <v>8</v>
@@ -5707,7 +5992,7 @@
         <v>410 text de</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F213" t="s">
         <v>8</v>
@@ -5751,7 +6036,7 @@
         <v>412 Terreno coltivato</v>
       </c>
       <c r="E215" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F215" t="s">
         <v>8</v>
@@ -5773,7 +6058,7 @@
         <v>412 text fr</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F216" t="s">
         <v>8</v>
@@ -5795,7 +6080,7 @@
         <v>412 text de</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F217" t="s">
         <v>8</v>
@@ -5861,7 +6146,7 @@
         <v>413 text fr</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F220" t="s">
         <v>8</v>
@@ -5883,7 +6168,7 @@
         <v>413 text de</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F221" t="s">
         <v>8</v>
@@ -5927,7 +6212,7 @@
         <v>414 Vigneto o simile</v>
       </c>
       <c r="E223" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F223" t="s">
         <v>8</v>
@@ -5949,7 +6234,7 @@
         <v>414 text fr</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F224" t="s">
         <v>8</v>
@@ -5971,7 +6256,7 @@
         <v>414 text de</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F225" t="s">
         <v>8</v>
@@ -6015,7 +6300,7 @@
         <v>415 Margine netto di coltivazione</v>
       </c>
       <c r="E227" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F227" t="s">
         <v>7</v>
@@ -6037,7 +6322,7 @@
         <v>415 text fr</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F228" t="s">
         <v>7</v>
@@ -6059,7 +6344,7 @@
         <v>415 text de</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F229" t="s">
         <v>7</v>
@@ -6103,7 +6388,7 @@
         <v>416 Margine netto di vegetazione</v>
       </c>
       <c r="E231" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
@@ -6125,7 +6410,7 @@
         <v>416 text fr</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F232" t="s">
         <v>7</v>
@@ -6147,7 +6432,7 @@
         <v>416 text de</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F233" t="s">
         <v>7</v>
@@ -6172,7 +6457,7 @@
         <v>71</v>
       </c>
       <c r="F234" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6191,10 +6476,10 @@
         <v>417 Grande albero evidente</v>
       </c>
       <c r="E235" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F235" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6213,10 +6498,10 @@
         <v>417 text fr</v>
       </c>
       <c r="E236" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F236" t="s">
         <v>198</v>
-      </c>
-      <c r="F236" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6235,10 +6520,10 @@
         <v>417 text de</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F237" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6260,7 +6545,7 @@
         <v>72</v>
       </c>
       <c r="F238" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6279,10 +6564,10 @@
         <v>418 Albero o cespuglio evidente</v>
       </c>
       <c r="E239" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F239" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6301,10 +6586,10 @@
         <v>418 text fr</v>
       </c>
       <c r="E240" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F240" t="s">
         <v>198</v>
-      </c>
-      <c r="F240" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6323,10 +6608,10 @@
         <v>418 text de</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F241" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6348,7 +6633,7 @@
         <v>73</v>
       </c>
       <c r="F242" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6367,10 +6652,10 @@
         <v>419 Oggetto vegetale evidente</v>
       </c>
       <c r="E243" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F243" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6389,10 +6674,10 @@
         <v>419 text fr</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F244" t="s">
         <v>198</v>
-      </c>
-      <c r="F244" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,10 +6696,10 @@
         <v>419 text de</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F245" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,7 +6740,7 @@
         <v>501 Area pavimentata</v>
       </c>
       <c r="E247" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F247" t="s">
         <v>8</v>
@@ -6477,7 +6762,7 @@
         <v>501 text fr</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F248" t="s">
         <v>8</v>
@@ -6499,7 +6784,7 @@
         <v>501 text de</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F249" t="s">
         <v>8</v>
@@ -6540,10 +6825,10 @@
       </c>
       <c r="D251" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>502 Strada principale</v>
+        <v>502 Strada asfaltata</v>
       </c>
       <c r="E251" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="F251" t="s">
         <v>7</v>
@@ -6565,7 +6850,7 @@
         <v>502 text fr</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F252" t="s">
         <v>7</v>
@@ -6587,7 +6872,7 @@
         <v>502 text de</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F253" t="s">
         <v>7</v>
@@ -6606,10 +6891,10 @@
       </c>
       <c r="D254" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>503 Troad</v>
+        <v>503 Paved road</v>
       </c>
       <c r="E254" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="F254" t="s">
         <v>7</v>
@@ -6631,7 +6916,7 @@
         <v>503 Strada</v>
       </c>
       <c r="E255" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F255" t="s">
         <v>7</v>
@@ -6653,7 +6938,7 @@
         <v>503 text fr</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F256" t="s">
         <v>7</v>
@@ -6675,7 +6960,7 @@
         <v>503 text de</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F257" t="s">
         <v>7</v>
@@ -6697,7 +6982,7 @@
         <v>504 Vehicle track</v>
       </c>
       <c r="E258" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F258" t="s">
         <v>7</v>
@@ -6719,7 +7004,7 @@
         <v>504 Carrareccia</v>
       </c>
       <c r="E259" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F259" t="s">
         <v>7</v>
@@ -6741,7 +7026,7 @@
         <v>504 text fr</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F260" t="s">
         <v>7</v>
@@ -6763,7 +7048,7 @@
         <v>504 text de</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F261" t="s">
         <v>7</v>
@@ -6785,7 +7070,7 @@
         <v>505 Footpath</v>
       </c>
       <c r="E262" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -6807,7 +7092,7 @@
         <v>505 Sentiero</v>
       </c>
       <c r="E263" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F263" t="s">
         <v>7</v>
@@ -6829,7 +7114,7 @@
         <v>505 text fr</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F264" t="s">
         <v>7</v>
@@ -6851,7 +7136,7 @@
         <v>505 text de</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F265" t="s">
         <v>7</v>
@@ -6873,7 +7158,7 @@
         <v>506 Small footpath</v>
       </c>
       <c r="E266" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F266" t="s">
         <v>7</v>
@@ -6895,7 +7180,7 @@
         <v>506 Piccolo sentiero</v>
       </c>
       <c r="E267" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F267" t="s">
         <v>7</v>
@@ -6917,7 +7202,7 @@
         <v>506 text fr</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F268" t="s">
         <v>7</v>
@@ -6939,7 +7224,7 @@
         <v>506 text de</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F269" t="s">
         <v>7</v>
@@ -6961,7 +7246,7 @@
         <v>507 Less distinct small footpath</v>
       </c>
       <c r="E270" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -6983,7 +7268,7 @@
         <v>507 Piccolo sentiero indistinto</v>
       </c>
       <c r="E271" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F271" t="s">
         <v>7</v>
@@ -7005,7 +7290,7 @@
         <v>507 text fr</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F272" t="s">
         <v>7</v>
@@ -7027,7 +7312,7 @@
         <v>507 text de</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F273" t="s">
         <v>7</v>
@@ -7049,7 +7334,7 @@
         <v>508 Narrow ride or linear trace through the terrain</v>
       </c>
       <c r="E274" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F274" t="s">
         <v>7</v>
@@ -7071,7 +7356,7 @@
         <v>508 Stretta pista o traccia lineare sul terreno</v>
       </c>
       <c r="E275" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F275" t="s">
         <v>7</v>
@@ -7093,7 +7378,7 @@
         <v>508 text fr</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F276" t="s">
         <v>7</v>
@@ -7115,7 +7400,7 @@
         <v>508 text de</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F277" t="s">
         <v>7</v>
@@ -7137,7 +7422,7 @@
         <v>509 Railway</v>
       </c>
       <c r="E278" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F278" t="s">
         <v>7</v>
@@ -7159,7 +7444,7 @@
         <v>509 Ferrovia</v>
       </c>
       <c r="E279" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F279" t="s">
         <v>7</v>
@@ -7181,7 +7466,7 @@
         <v>509 text fr</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F280" t="s">
         <v>7</v>
@@ -7203,7 +7488,7 @@
         <v>509 text de</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F281" t="s">
         <v>7</v>
@@ -7225,7 +7510,7 @@
         <v>510 Power line, cableway or skilift</v>
       </c>
       <c r="E282" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F282" t="s">
         <v>7</v>
@@ -7247,7 +7532,7 @@
         <v>510 Linea elettrica, funivia o skilift</v>
       </c>
       <c r="E283" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F283" t="s">
         <v>7</v>
@@ -7269,7 +7554,7 @@
         <v>510 text fr</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F284" t="s">
         <v>7</v>
@@ -7291,7 +7576,7 @@
         <v>510 text de</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F285" t="s">
         <v>7</v>
@@ -7313,7 +7598,7 @@
         <v>511 Major power line</v>
       </c>
       <c r="E286" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F286" t="s">
         <v>7</v>
@@ -7335,7 +7620,7 @@
         <v>511 Elettrodotto d'alta tensione</v>
       </c>
       <c r="E287" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F287" t="s">
         <v>7</v>
@@ -7357,7 +7642,7 @@
         <v>511 text fr</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F288" t="s">
         <v>7</v>
@@ -7379,7 +7664,7 @@
         <v>511 text de</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F289" t="s">
         <v>7</v>
@@ -7401,7 +7686,7 @@
         <v>512 Bridge / tunnel</v>
       </c>
       <c r="E290" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F290" t="s">
         <v>7</v>
@@ -7423,7 +7708,7 @@
         <v>512 Ponte / galleria</v>
       </c>
       <c r="E291" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F291" t="s">
         <v>7</v>
@@ -7445,7 +7730,7 @@
         <v>512 text fr</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F292" t="s">
         <v>7</v>
@@ -7467,7 +7752,7 @@
         <v>512 text de</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F293" t="s">
         <v>7</v>
@@ -7489,7 +7774,7 @@
         <v>513 Wall</v>
       </c>
       <c r="E294" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F294" t="s">
         <v>7</v>
@@ -7511,7 +7796,7 @@
         <v>513 Muretto</v>
       </c>
       <c r="E295" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F295" t="s">
         <v>7</v>
@@ -7533,7 +7818,7 @@
         <v>513 text fr</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F296" t="s">
         <v>7</v>
@@ -7555,7 +7840,7 @@
         <v>513 text de</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -7577,7 +7862,7 @@
         <v>514 Ruined wall</v>
       </c>
       <c r="E298" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F298" t="s">
         <v>7</v>
@@ -7599,7 +7884,7 @@
         <v>514 Muretto diroccato</v>
       </c>
       <c r="E299" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F299" t="s">
         <v>7</v>
@@ -7621,7 +7906,7 @@
         <v>514 text fr</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F300" t="s">
         <v>7</v>
@@ -7643,7 +7928,7 @@
         <v>514 text de</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F301" t="s">
         <v>7</v>
@@ -7665,7 +7950,7 @@
         <v>515 Impassable wall</v>
       </c>
       <c r="E302" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F302" t="s">
         <v>7</v>
@@ -7687,7 +7972,7 @@
         <v>515 Muro non attraversabile</v>
       </c>
       <c r="E303" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F303" t="s">
         <v>7</v>
@@ -7709,7 +7994,7 @@
         <v>515 text fr</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F304" t="s">
         <v>7</v>
@@ -7731,7 +8016,7 @@
         <v>515 text de</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F305" t="s">
         <v>7</v>
@@ -7753,7 +8038,7 @@
         <v>516 Fence</v>
       </c>
       <c r="E306" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F306" t="s">
         <v>7</v>
@@ -7775,7 +8060,7 @@
         <v>516 Recinzione</v>
       </c>
       <c r="E307" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F307" t="s">
         <v>7</v>
@@ -7797,7 +8082,7 @@
         <v>516 text fr</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F308" t="s">
         <v>7</v>
@@ -7819,7 +8104,7 @@
         <v>516 text de</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F309" t="s">
         <v>7</v>
@@ -7841,7 +8126,7 @@
         <v>517 Ruined fence</v>
       </c>
       <c r="E310" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F310" t="s">
         <v>7</v>
@@ -7863,7 +8148,7 @@
         <v>517 Recinzione in rovina</v>
       </c>
       <c r="E311" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F311" t="s">
         <v>7</v>
@@ -7885,7 +8170,7 @@
         <v>517 text fr</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F312" t="s">
         <v>7</v>
@@ -7907,7 +8192,7 @@
         <v>517 text de</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F313" t="s">
         <v>7</v>
@@ -7929,7 +8214,7 @@
         <v>518 Impassable fence</v>
       </c>
       <c r="E314" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F314" t="s">
         <v>7</v>
@@ -7951,7 +8236,7 @@
         <v>518 Recinto non attraversabile</v>
       </c>
       <c r="E315" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F315" t="s">
         <v>7</v>
@@ -7973,7 +8258,7 @@
         <v>518 text fr</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F316" t="s">
         <v>7</v>
@@ -7995,7 +8280,7 @@
         <v>518 text de</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F317" t="s">
         <v>7</v>
@@ -8017,10 +8302,10 @@
         <v>519 Crossing point</v>
       </c>
       <c r="E318" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F318" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8039,10 +8324,10 @@
         <v>519 Punto di passaggio</v>
       </c>
       <c r="E319" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F319" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8061,10 +8346,10 @@
         <v>519 text fr</v>
       </c>
       <c r="E320" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F320" t="s">
         <v>198</v>
-      </c>
-      <c r="F320" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -8083,10 +8368,10 @@
         <v>519 text de</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F321" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -8105,7 +8390,7 @@
         <v>520 Area that shall not be entered</v>
       </c>
       <c r="E322" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F322" t="s">
         <v>8</v>
@@ -8127,7 +8412,7 @@
         <v>520 Area vietata all'accesso</v>
       </c>
       <c r="E323" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F323" t="s">
         <v>8</v>
@@ -8149,7 +8434,7 @@
         <v>520 text fr</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F324" t="s">
         <v>8</v>
@@ -8171,7 +8456,7 @@
         <v>520 text de</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F325" t="s">
         <v>8</v>
@@ -8193,7 +8478,7 @@
         <v>521 Building</v>
       </c>
       <c r="E326" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F326" t="s">
         <v>8</v>
@@ -8215,7 +8500,7 @@
         <v>521 Edificio</v>
       </c>
       <c r="E327" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F327" t="s">
         <v>8</v>
@@ -8237,7 +8522,7 @@
         <v>521 text fr</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F328" t="s">
         <v>8</v>
@@ -8259,7 +8544,7 @@
         <v>521 text de</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F329" t="s">
         <v>8</v>
@@ -8281,7 +8566,7 @@
         <v>522 Canopy</v>
       </c>
       <c r="E330" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F330" t="s">
         <v>8</v>
@@ -8303,7 +8588,7 @@
         <v>522 Tettoia</v>
       </c>
       <c r="E331" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F331" t="s">
         <v>8</v>
@@ -8325,7 +8610,7 @@
         <v>522 text fr</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F332" t="s">
         <v>8</v>
@@ -8347,7 +8632,7 @@
         <v>522 text de</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F333" t="s">
         <v>8</v>
@@ -8369,7 +8654,7 @@
         <v>523 Ruin</v>
       </c>
       <c r="E334" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F334" t="s">
         <v>7</v>
@@ -8391,7 +8676,7 @@
         <v>523 Rudere</v>
       </c>
       <c r="E335" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F335" t="s">
         <v>7</v>
@@ -8413,7 +8698,7 @@
         <v>523 text fr</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F336" t="s">
         <v>7</v>
@@ -8435,7 +8720,7 @@
         <v>523 text de</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F337" t="s">
         <v>7</v>
@@ -8450,17 +8735,17 @@
         <v>524</v>
       </c>
       <c r="C338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D338" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>524 High tower</v>
-      </c>
-      <c r="E338" t="s">
-        <v>97</v>
+        <v>524 Alta torre</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F338" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -8472,17 +8757,17 @@
         <v>524</v>
       </c>
       <c r="C339" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D339" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>524 text fr</v>
-      </c>
-      <c r="E339" s="1" t="s">
+        <v>524 High tower</v>
+      </c>
+      <c r="E339" t="s">
+        <v>96</v>
+      </c>
+      <c r="F339" t="s">
         <v>198</v>
-      </c>
-      <c r="F339" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -8494,39 +8779,39 @@
         <v>524</v>
       </c>
       <c r="C340" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D340" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>524 text de</v>
+        <v>524 text fr</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F340" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5254</v>
+        <v>5244</v>
       </c>
       <c r="B341">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D341" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>525 Small tower</v>
-      </c>
-      <c r="E341" t="s">
-        <v>98</v>
+        <v>524 text de</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F341" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -8545,10 +8830,10 @@
         <v>525 Piccola torre</v>
       </c>
       <c r="E342" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F342" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8560,17 +8845,17 @@
         <v>525</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D343" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>525 text fr</v>
-      </c>
-      <c r="E343" s="1" t="s">
+        <v>525 Small tower</v>
+      </c>
+      <c r="E343" t="s">
+        <v>97</v>
+      </c>
+      <c r="F343" t="s">
         <v>198</v>
-      </c>
-      <c r="F343" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8582,39 +8867,39 @@
         <v>525</v>
       </c>
       <c r="C344" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D344" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>525 text de</v>
+        <v>525 text fr</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F344" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5264</v>
+        <v>5254</v>
       </c>
       <c r="B345">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D345" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>526 Cairn</v>
-      </c>
-      <c r="E345" t="s">
-        <v>99</v>
+        <v>525 text de</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F345" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8633,10 +8918,10 @@
         <v>526 Cippo</v>
       </c>
       <c r="E346" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F346" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8648,17 +8933,17 @@
         <v>526</v>
       </c>
       <c r="C347" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D347" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>526 text fr</v>
-      </c>
-      <c r="E347" s="1" t="s">
+        <v>526 Cairn</v>
+      </c>
+      <c r="E347" t="s">
+        <v>98</v>
+      </c>
+      <c r="F347" t="s">
         <v>198</v>
-      </c>
-      <c r="F347" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -8670,39 +8955,39 @@
         <v>526</v>
       </c>
       <c r="C348" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D348" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>526 text de</v>
+        <v>526 text fr</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F348" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5274</v>
+        <v>5264</v>
       </c>
       <c r="B349">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D349" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>527 Fodder rack</v>
-      </c>
-      <c r="E349" t="s">
-        <v>100</v>
+        <v>526 text de</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F349" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -8721,10 +9006,10 @@
         <v>527 Mangiatoia</v>
       </c>
       <c r="E350" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F350" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -8736,17 +9021,17 @@
         <v>527</v>
       </c>
       <c r="C351" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D351" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>527 text fr</v>
-      </c>
-      <c r="E351" s="1" t="s">
+        <v>527 Fodder rack</v>
+      </c>
+      <c r="E351" t="s">
+        <v>99</v>
+      </c>
+      <c r="F351" t="s">
         <v>198</v>
-      </c>
-      <c r="F351" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -8758,39 +9043,39 @@
         <v>527</v>
       </c>
       <c r="C352" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D352" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>527 text de</v>
+        <v>527 text fr</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F352" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5284</v>
+        <v>5274</v>
       </c>
       <c r="B353">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C353" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D353" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>528 Prominent line feature</v>
-      </c>
-      <c r="E353" t="s">
-        <v>101</v>
+        <v>527 text de</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F353" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -8809,7 +9094,7 @@
         <v>528 Oggetto lineare evidente</v>
       </c>
       <c r="E354" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F354" t="s">
         <v>7</v>
@@ -8824,14 +9109,14 @@
         <v>528</v>
       </c>
       <c r="C355" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D355" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>528 text fr</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>198</v>
+        <v>528 Prominent line feature</v>
+      </c>
+      <c r="E355" t="s">
+        <v>100</v>
       </c>
       <c r="F355" t="s">
         <v>7</v>
@@ -8846,14 +9131,14 @@
         <v>528</v>
       </c>
       <c r="C356" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D356" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>528 text de</v>
+        <v>528 text fr</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F356" t="s">
         <v>7</v>
@@ -8862,20 +9147,20 @@
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5294</v>
+        <v>5284</v>
       </c>
       <c r="B357">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C357" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D357" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>529 Prominent impassable line feature</v>
-      </c>
-      <c r="E357" t="s">
-        <v>102</v>
+        <v>528 text de</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F357" t="s">
         <v>7</v>
@@ -8897,7 +9182,7 @@
         <v>529 Evidente oggetto lineare non attraversabile</v>
       </c>
       <c r="E358" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F358" t="s">
         <v>7</v>
@@ -8912,14 +9197,14 @@
         <v>529</v>
       </c>
       <c r="C359" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D359" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>529 text fr</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>198</v>
+        <v>529 Prominent impassable line feature</v>
+      </c>
+      <c r="E359" t="s">
+        <v>101</v>
       </c>
       <c r="F359" t="s">
         <v>7</v>
@@ -8934,14 +9219,14 @@
         <v>529</v>
       </c>
       <c r="C360" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D360" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>529 text de</v>
+        <v>529 text fr</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F360" t="s">
         <v>7</v>
@@ -8950,23 +9235,23 @@
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5304</v>
+        <v>5294</v>
       </c>
       <c r="B361">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C361" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D361" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>530 Prominent man-made feature - ring</v>
-      </c>
-      <c r="E361" t="s">
-        <v>103</v>
+        <v>529 text de</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F361" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -8985,10 +9270,10 @@
         <v>530 Evidente oggetto artificiale - cerchio</v>
       </c>
       <c r="E362" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F362" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -9000,17 +9285,17 @@
         <v>530</v>
       </c>
       <c r="C363" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D363" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>530 text fr</v>
-      </c>
-      <c r="E363" s="1" t="s">
+        <v>530 Prominent man-made feature - ring</v>
+      </c>
+      <c r="E363" t="s">
+        <v>102</v>
+      </c>
+      <c r="F363" t="s">
         <v>198</v>
-      </c>
-      <c r="F363" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -9022,39 +9307,39 @@
         <v>530</v>
       </c>
       <c r="C364" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D364" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>530 text de</v>
+        <v>530 text fr</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F364" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5314</v>
+        <v>5304</v>
       </c>
       <c r="B365">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C365" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D365" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>531 Prominent man-made feature - x</v>
-      </c>
-      <c r="E365" t="s">
-        <v>104</v>
+        <v>530 text de</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F365" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -9073,10 +9358,10 @@
         <v>531 Evidente oggetto artificiale - x</v>
       </c>
       <c r="E366" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F366" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -9088,17 +9373,17 @@
         <v>531</v>
       </c>
       <c r="C367" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D367" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>531 text fr</v>
-      </c>
-      <c r="E367" s="1" t="s">
+        <v>531 Prominent man-made feature - x</v>
+      </c>
+      <c r="E367" t="s">
+        <v>103</v>
+      </c>
+      <c r="F367" t="s">
         <v>198</v>
-      </c>
-      <c r="F367" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -9110,39 +9395,39 @@
         <v>531</v>
       </c>
       <c r="C368" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D368" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>531 text de</v>
+        <v>531 text fr</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F368" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
-        <v>5324</v>
+        <v>5314</v>
       </c>
       <c r="B369">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C369" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D369" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>532 Stairway</v>
-      </c>
-      <c r="E369" t="s">
-        <v>105</v>
+        <v>531 text de</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="F369" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -9161,7 +9446,7 @@
         <v>532 Scalinata</v>
       </c>
       <c r="E370" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F370" t="s">
         <v>7</v>
@@ -9176,14 +9461,14 @@
         <v>532</v>
       </c>
       <c r="C371" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D371" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>532 text fr</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>198</v>
+        <v>532 Stairway</v>
+      </c>
+      <c r="E371" t="s">
+        <v>104</v>
       </c>
       <c r="F371" t="s">
         <v>7</v>
@@ -9198,14 +9483,14 @@
         <v>532</v>
       </c>
       <c r="C372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D372" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>532 text de</v>
+        <v>532 text fr</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F372" t="s">
         <v>7</v>
@@ -9214,23 +9499,1887 @@
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
         <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>5324</v>
+      </c>
+      <c r="B373">
+        <v>532</v>
+      </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>532 text de</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>5341</v>
+      </c>
+      <c r="B374">
+        <v>534</v>
+      </c>
+      <c r="C374" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>534 Torre alta, traliccio</v>
+      </c>
+      <c r="E374" t="s">
+        <v>187</v>
+      </c>
+      <c r="F374" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>5342</v>
+      </c>
+      <c r="B375">
+        <v>534</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>534 High tower</v>
+      </c>
+      <c r="E375" t="s">
+        <v>96</v>
+      </c>
+      <c r="F375" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>5343</v>
+      </c>
+      <c r="B376">
+        <v>534</v>
+      </c>
+      <c r="C376" t="s">
+        <v>12</v>
+      </c>
+      <c r="D376" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>534 text fr</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F376" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
         <v>5344</v>
       </c>
-      <c r="B373">
+      <c r="B377">
         <v>534</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>534 text de</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F377" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>6031</v>
+      </c>
+      <c r="B378">
+        <v>603</v>
+      </c>
+      <c r="C378" t="s">
         <v>4</v>
       </c>
-      <c r="D373" t="str">
-        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
-        <v>534 Torre alta, traliccio</v>
-      </c>
-      <c r="E373" t="s">
-        <v>189</v>
-      </c>
-      <c r="F373" t="s">
+      <c r="D378" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>603 Punto altimetrico</v>
+      </c>
+      <c r="E378" t="s">
         <v>200</v>
+      </c>
+      <c r="F378" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>6032</v>
+      </c>
+      <c r="B379">
+        <v>603</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+      <c r="D379" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>603 Spot height</v>
+      </c>
+      <c r="E379" t="s">
+        <v>201</v>
+      </c>
+      <c r="F379" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>6033</v>
+      </c>
+      <c r="B380">
+        <v>603</v>
+      </c>
+      <c r="C380" t="s">
+        <v>12</v>
+      </c>
+      <c r="D380" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>603 text fr</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F380" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>6034</v>
+      </c>
+      <c r="B381">
+        <v>603</v>
+      </c>
+      <c r="C381" t="s">
+        <v>11</v>
+      </c>
+      <c r="D381" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>603 text de</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F381" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>7091</v>
+      </c>
+      <c r="B382">
+        <v>709</v>
+      </c>
+      <c r="C382" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>709 Area fuori gara</v>
+      </c>
+      <c r="E382" t="s">
+        <v>236</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>7092</v>
+      </c>
+      <c r="B383">
+        <v>709</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+      <c r="D383" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>709 Out-of-bounds area</v>
+      </c>
+      <c r="E383" t="s">
+        <v>235</v>
+      </c>
+      <c r="F383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>7093</v>
+      </c>
+      <c r="B384">
+        <v>709</v>
+      </c>
+      <c r="C384" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>709 text fr</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>7094</v>
+      </c>
+      <c r="B385">
+        <v>709</v>
+      </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
+      <c r="D385" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>709 text de</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8151</v>
+      </c>
+      <c r="B386">
+        <v>815</v>
+      </c>
+      <c r="C386" t="s">
+        <v>4</v>
+      </c>
+      <c r="D386" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>815 Sentiero: corsa veloce</v>
+      </c>
+      <c r="E386" t="s">
+        <v>207</v>
+      </c>
+      <c r="F386" t="s">
+        <v>7</v>
+      </c>
+      <c r="G386" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8152</v>
+      </c>
+      <c r="B387">
+        <v>815</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
+      </c>
+      <c r="D387" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>815 Track: fast riding</v>
+      </c>
+      <c r="E387" t="s">
+        <v>206</v>
+      </c>
+      <c r="F387" t="s">
+        <v>7</v>
+      </c>
+      <c r="G387" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8153</v>
+      </c>
+      <c r="B388">
+        <v>815</v>
+      </c>
+      <c r="C388" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>815 text fr</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F388" t="s">
+        <v>7</v>
+      </c>
+      <c r="G388" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8154</v>
+      </c>
+      <c r="B389">
+        <v>815</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>815 text de</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F389" t="s">
+        <v>7</v>
+      </c>
+      <c r="G389" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8161</v>
+      </c>
+      <c r="B390">
+        <v>816</v>
+      </c>
+      <c r="C390" t="s">
+        <v>4</v>
+      </c>
+      <c r="D390" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>816 Pista: corsa veloce</v>
+      </c>
+      <c r="E390" t="s">
+        <v>208</v>
+      </c>
+      <c r="F390" t="s">
+        <v>7</v>
+      </c>
+      <c r="G390" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8162</v>
+      </c>
+      <c r="B391">
+        <v>816</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5</v>
+      </c>
+      <c r="D391" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>816 Path: fast riding</v>
+      </c>
+      <c r="E391" t="s">
+        <v>209</v>
+      </c>
+      <c r="F391" t="s">
+        <v>7</v>
+      </c>
+      <c r="G391" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8163</v>
+      </c>
+      <c r="B392">
+        <v>816</v>
+      </c>
+      <c r="C392" t="s">
+        <v>12</v>
+      </c>
+      <c r="D392" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>816 text fr</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F392" t="s">
+        <v>7</v>
+      </c>
+      <c r="G392" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8164</v>
+      </c>
+      <c r="B393">
+        <v>816</v>
+      </c>
+      <c r="C393" t="s">
+        <v>11</v>
+      </c>
+      <c r="D393" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>816 text de</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F393" t="s">
+        <v>7</v>
+      </c>
+      <c r="G393" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8171</v>
+      </c>
+      <c r="B394">
+        <v>817</v>
+      </c>
+      <c r="C394" t="s">
+        <v>4</v>
+      </c>
+      <c r="D394" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>817 Sentiero: corsa media</v>
+      </c>
+      <c r="E394" t="s">
+        <v>211</v>
+      </c>
+      <c r="F394" t="s">
+        <v>7</v>
+      </c>
+      <c r="G394" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8172</v>
+      </c>
+      <c r="B395">
+        <v>817</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+      <c r="D395" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>817 Track: medium riding</v>
+      </c>
+      <c r="E395" t="s">
+        <v>210</v>
+      </c>
+      <c r="F395" t="s">
+        <v>7</v>
+      </c>
+      <c r="G395" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8173</v>
+      </c>
+      <c r="B396">
+        <v>817</v>
+      </c>
+      <c r="C396" t="s">
+        <v>12</v>
+      </c>
+      <c r="D396" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>817 text fr</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F396" t="s">
+        <v>7</v>
+      </c>
+      <c r="G396" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8174</v>
+      </c>
+      <c r="B397">
+        <v>817</v>
+      </c>
+      <c r="C397" t="s">
+        <v>11</v>
+      </c>
+      <c r="D397" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>817 text de</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F397" t="s">
+        <v>7</v>
+      </c>
+      <c r="G397" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8181</v>
+      </c>
+      <c r="B398">
+        <v>818</v>
+      </c>
+      <c r="C398" t="s">
+        <v>4</v>
+      </c>
+      <c r="D398" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>818 Pista: corsa media</v>
+      </c>
+      <c r="E398" t="s">
+        <v>212</v>
+      </c>
+      <c r="F398" t="s">
+        <v>7</v>
+      </c>
+      <c r="G398" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8182</v>
+      </c>
+      <c r="B399">
+        <v>818</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>818 Path: medium riding</v>
+      </c>
+      <c r="E399" t="s">
+        <v>213</v>
+      </c>
+      <c r="F399" t="s">
+        <v>7</v>
+      </c>
+      <c r="G399" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8183</v>
+      </c>
+      <c r="B400">
+        <v>818</v>
+      </c>
+      <c r="C400" t="s">
+        <v>12</v>
+      </c>
+      <c r="D400" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>818 text fr</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F400" t="s">
+        <v>7</v>
+      </c>
+      <c r="G400" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8184</v>
+      </c>
+      <c r="B401">
+        <v>818</v>
+      </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>818 text de</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F401" t="s">
+        <v>7</v>
+      </c>
+      <c r="G401" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8191</v>
+      </c>
+      <c r="B402">
+        <v>819</v>
+      </c>
+      <c r="C402" t="s">
+        <v>4</v>
+      </c>
+      <c r="D402" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>819 Sentiero: corsa lenta</v>
+      </c>
+      <c r="E402" t="s">
+        <v>215</v>
+      </c>
+      <c r="F402" t="s">
+        <v>7</v>
+      </c>
+      <c r="G402" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8192</v>
+      </c>
+      <c r="B403">
+        <v>819</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+      <c r="D403" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>819 Track: slow riding</v>
+      </c>
+      <c r="E403" t="s">
+        <v>214</v>
+      </c>
+      <c r="F403" t="s">
+        <v>7</v>
+      </c>
+      <c r="G403" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8193</v>
+      </c>
+      <c r="B404">
+        <v>819</v>
+      </c>
+      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>819 text fr</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F404" t="s">
+        <v>7</v>
+      </c>
+      <c r="G404" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8194</v>
+      </c>
+      <c r="B405">
+        <v>819</v>
+      </c>
+      <c r="C405" t="s">
+        <v>11</v>
+      </c>
+      <c r="D405" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>819 text de</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F405" t="s">
+        <v>7</v>
+      </c>
+      <c r="G405" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8201</v>
+      </c>
+      <c r="B406">
+        <v>820</v>
+      </c>
+      <c r="C406" t="s">
+        <v>4</v>
+      </c>
+      <c r="D406" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>820 Pista: corsa lenta</v>
+      </c>
+      <c r="E406" t="s">
+        <v>217</v>
+      </c>
+      <c r="F406" t="s">
+        <v>7</v>
+      </c>
+      <c r="G406" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8202</v>
+      </c>
+      <c r="B407">
+        <v>820</v>
+      </c>
+      <c r="C407" t="s">
+        <v>5</v>
+      </c>
+      <c r="D407" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>820 Path: slow riding</v>
+      </c>
+      <c r="E407" t="s">
+        <v>216</v>
+      </c>
+      <c r="F407" t="s">
+        <v>7</v>
+      </c>
+      <c r="G407" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8203</v>
+      </c>
+      <c r="B408">
+        <v>820</v>
+      </c>
+      <c r="C408" t="s">
+        <v>12</v>
+      </c>
+      <c r="D408" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>820 text fr</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F408" t="s">
+        <v>7</v>
+      </c>
+      <c r="G408" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8204</v>
+      </c>
+      <c r="B409">
+        <v>820</v>
+      </c>
+      <c r="C409" t="s">
+        <v>11</v>
+      </c>
+      <c r="D409" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>820 text de</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F409" t="s">
+        <v>7</v>
+      </c>
+      <c r="G409" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8211</v>
+      </c>
+      <c r="B410">
+        <v>821</v>
+      </c>
+      <c r="C410" t="s">
+        <v>4</v>
+      </c>
+      <c r="D410" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>821 Sentiero: corsa molto lenta</v>
+      </c>
+      <c r="E410" t="s">
+        <v>219</v>
+      </c>
+      <c r="F410" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8212</v>
+      </c>
+      <c r="B411">
+        <v>821</v>
+      </c>
+      <c r="C411" t="s">
+        <v>5</v>
+      </c>
+      <c r="D411" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>821 Track: very slow riding</v>
+      </c>
+      <c r="E411" t="s">
+        <v>218</v>
+      </c>
+      <c r="F411" t="s">
+        <v>7</v>
+      </c>
+      <c r="G411" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8213</v>
+      </c>
+      <c r="B412">
+        <v>821</v>
+      </c>
+      <c r="C412" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>821 text fr</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F412" t="s">
+        <v>7</v>
+      </c>
+      <c r="G412" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8214</v>
+      </c>
+      <c r="B413">
+        <v>821</v>
+      </c>
+      <c r="C413" t="s">
+        <v>11</v>
+      </c>
+      <c r="D413" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>821 text de</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F413" t="s">
+        <v>7</v>
+      </c>
+      <c r="G413" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8221</v>
+      </c>
+      <c r="B414">
+        <v>822</v>
+      </c>
+      <c r="C414" t="s">
+        <v>4</v>
+      </c>
+      <c r="D414" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>822 Pista: corsa molto lenta</v>
+      </c>
+      <c r="E414" t="s">
+        <v>220</v>
+      </c>
+      <c r="F414" t="s">
+        <v>7</v>
+      </c>
+      <c r="G414" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8222</v>
+      </c>
+      <c r="B415">
+        <v>822</v>
+      </c>
+      <c r="C415" t="s">
+        <v>5</v>
+      </c>
+      <c r="D415" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>822 Path: very slow riding</v>
+      </c>
+      <c r="E415" t="s">
+        <v>221</v>
+      </c>
+      <c r="F415" t="s">
+        <v>7</v>
+      </c>
+      <c r="G415" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8223</v>
+      </c>
+      <c r="B416">
+        <v>822</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>822 text fr</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F416" t="s">
+        <v>7</v>
+      </c>
+      <c r="G416" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8224</v>
+      </c>
+      <c r="B417">
+        <v>822</v>
+      </c>
+      <c r="C417" t="s">
+        <v>11</v>
+      </c>
+      <c r="D417" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>822 text de</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F417" t="s">
+        <v>7</v>
+      </c>
+      <c r="G417" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8231</v>
+      </c>
+      <c r="B418">
+        <v>823</v>
+      </c>
+      <c r="C418" t="s">
+        <v>4</v>
+      </c>
+      <c r="D418" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>823 Punto di fine sentiero</v>
+      </c>
+      <c r="E418" t="s">
+        <v>203</v>
+      </c>
+      <c r="F418" t="s">
+        <v>198</v>
+      </c>
+      <c r="G418" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8232</v>
+      </c>
+      <c r="B419">
+        <v>823</v>
+      </c>
+      <c r="C419" t="s">
+        <v>5</v>
+      </c>
+      <c r="D419" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>823 Track end point</v>
+      </c>
+      <c r="E419" t="s">
+        <v>202</v>
+      </c>
+      <c r="F419" t="s">
+        <v>198</v>
+      </c>
+      <c r="G419" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8233</v>
+      </c>
+      <c r="B420">
+        <v>823</v>
+      </c>
+      <c r="C420" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>823 text fr</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F420" t="s">
+        <v>198</v>
+      </c>
+      <c r="G420" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8234</v>
+      </c>
+      <c r="B421">
+        <v>823</v>
+      </c>
+      <c r="C421" t="s">
+        <v>11</v>
+      </c>
+      <c r="D421" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>823 text de</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F421" t="s">
+        <v>198</v>
+      </c>
+      <c r="G421" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8241</v>
+      </c>
+      <c r="B422">
+        <v>824</v>
+      </c>
+      <c r="C422" t="s">
+        <v>4</v>
+      </c>
+      <c r="D422" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>824 Terreno aperto, corsa permessa</v>
+      </c>
+      <c r="E422" t="s">
+        <v>223</v>
+      </c>
+      <c r="F422" t="s">
+        <v>8</v>
+      </c>
+      <c r="G422" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8242</v>
+      </c>
+      <c r="B423">
+        <v>824</v>
+      </c>
+      <c r="C423" t="s">
+        <v>5</v>
+      </c>
+      <c r="D423" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>824 Open land, permitted ride</v>
+      </c>
+      <c r="E423" t="s">
+        <v>222</v>
+      </c>
+      <c r="F423" t="s">
+        <v>8</v>
+      </c>
+      <c r="G423" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8243</v>
+      </c>
+      <c r="B424">
+        <v>824</v>
+      </c>
+      <c r="C424" t="s">
+        <v>12</v>
+      </c>
+      <c r="D424" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>824 text fr</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F424" t="s">
+        <v>8</v>
+      </c>
+      <c r="G424" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8244</v>
+      </c>
+      <c r="B425">
+        <v>824</v>
+      </c>
+      <c r="C425" t="s">
+        <v>11</v>
+      </c>
+      <c r="D425" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>824 text de</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F425" t="s">
+        <v>8</v>
+      </c>
+      <c r="G425" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8251</v>
+      </c>
+      <c r="B426">
+        <v>825</v>
+      </c>
+      <c r="C426" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>825 Selvicoltura, corsa permessa</v>
+      </c>
+      <c r="E426" t="s">
+        <v>238</v>
+      </c>
+      <c r="F426" t="s">
+        <v>8</v>
+      </c>
+      <c r="G426" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8252</v>
+      </c>
+      <c r="B427">
+        <v>825</v>
+      </c>
+      <c r="C427" t="s">
+        <v>5</v>
+      </c>
+      <c r="D427" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>825 Forested area, permitted to ride</v>
+      </c>
+      <c r="E427" t="s">
+        <v>224</v>
+      </c>
+      <c r="F427" t="s">
+        <v>8</v>
+      </c>
+      <c r="G427" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8253</v>
+      </c>
+      <c r="B428">
+        <v>825</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>825 text fr</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F428" t="s">
+        <v>8</v>
+      </c>
+      <c r="G428" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8254</v>
+      </c>
+      <c r="B429">
+        <v>825</v>
+      </c>
+      <c r="C429" t="s">
+        <v>11</v>
+      </c>
+      <c r="D429" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>825 text de</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F429" t="s">
+        <v>8</v>
+      </c>
+      <c r="G429" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8261</v>
+      </c>
+      <c r="B430">
+        <v>826</v>
+      </c>
+      <c r="C430" t="s">
+        <v>4</v>
+      </c>
+      <c r="D430" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>826 Terreno aperto impervio corsa permessa</v>
+      </c>
+      <c r="E430" t="s">
+        <v>226</v>
+      </c>
+      <c r="F430" t="s">
+        <v>8</v>
+      </c>
+      <c r="G430" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8262</v>
+      </c>
+      <c r="B431">
+        <v>826</v>
+      </c>
+      <c r="C431" t="s">
+        <v>5</v>
+      </c>
+      <c r="D431" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>826 Rough open land, permitted to ride</v>
+      </c>
+      <c r="E431" t="s">
+        <v>225</v>
+      </c>
+      <c r="F431" t="s">
+        <v>8</v>
+      </c>
+      <c r="G431" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8263</v>
+      </c>
+      <c r="B432">
+        <v>826</v>
+      </c>
+      <c r="C432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>826 text fr</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F432" t="s">
+        <v>8</v>
+      </c>
+      <c r="G432" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8264</v>
+      </c>
+      <c r="B433">
+        <v>826</v>
+      </c>
+      <c r="C433" t="s">
+        <v>11</v>
+      </c>
+      <c r="D433" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>826 text de</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F433" t="s">
+        <v>8</v>
+      </c>
+      <c r="G433" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8271</v>
+      </c>
+      <c r="B434">
+        <v>827</v>
+      </c>
+      <c r="C434" t="s">
+        <v>4</v>
+      </c>
+      <c r="D434" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>827 Passaggio stretto o traccia lineare attraverso il terreno: corsa veloce</v>
+      </c>
+      <c r="E434" t="s">
+        <v>228</v>
+      </c>
+      <c r="F434" t="s">
+        <v>7</v>
+      </c>
+      <c r="G434" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8272</v>
+      </c>
+      <c r="B435">
+        <v>827</v>
+      </c>
+      <c r="C435" t="s">
+        <v>5</v>
+      </c>
+      <c r="D435" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>827 Narrow ride or linear trace through the terrain, permitted to ride: fast riding</v>
+      </c>
+      <c r="E435" t="s">
+        <v>227</v>
+      </c>
+      <c r="F435" t="s">
+        <v>7</v>
+      </c>
+      <c r="G435" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8273</v>
+      </c>
+      <c r="B436">
+        <v>827</v>
+      </c>
+      <c r="C436" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>827 text fr</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F436" t="s">
+        <v>7</v>
+      </c>
+      <c r="G436" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8274</v>
+      </c>
+      <c r="B437">
+        <v>827</v>
+      </c>
+      <c r="C437" t="s">
+        <v>11</v>
+      </c>
+      <c r="D437" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>827 text de</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F437" t="s">
+        <v>7</v>
+      </c>
+      <c r="G437" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8281</v>
+      </c>
+      <c r="B438">
+        <v>828</v>
+      </c>
+      <c r="C438" t="s">
+        <v>4</v>
+      </c>
+      <c r="D438" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>828 Passaggio stretto o traccia lineare attraverso il terreno: corsa media</v>
+      </c>
+      <c r="E438" t="s">
+        <v>230</v>
+      </c>
+      <c r="F438" t="s">
+        <v>7</v>
+      </c>
+      <c r="G438" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8282</v>
+      </c>
+      <c r="B439">
+        <v>828</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>828 Narrow ride or linear trace through the terrain, permitted to ride: medium riding</v>
+      </c>
+      <c r="E439" t="s">
+        <v>229</v>
+      </c>
+      <c r="F439" t="s">
+        <v>7</v>
+      </c>
+      <c r="G439" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8283</v>
+      </c>
+      <c r="B440">
+        <v>828</v>
+      </c>
+      <c r="C440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>828 text fr</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F440" t="s">
+        <v>7</v>
+      </c>
+      <c r="G440" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8284</v>
+      </c>
+      <c r="B441">
+        <v>828</v>
+      </c>
+      <c r="C441" t="s">
+        <v>11</v>
+      </c>
+      <c r="D441" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>828 text de</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F441" t="s">
+        <v>7</v>
+      </c>
+      <c r="G441" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8291</v>
+      </c>
+      <c r="B442">
+        <v>829</v>
+      </c>
+      <c r="C442" t="s">
+        <v>4</v>
+      </c>
+      <c r="D442" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>829 Passaggio stretto o traccia lineare attraverso il terreno: corsa lenta</v>
+      </c>
+      <c r="E442" t="s">
+        <v>231</v>
+      </c>
+      <c r="F442" t="s">
+        <v>7</v>
+      </c>
+      <c r="G442" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8292</v>
+      </c>
+      <c r="B443">
+        <v>829</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+      <c r="D443" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>829 Narrow ride or linear trace through the terrain, permitted to ride: slow riding</v>
+      </c>
+      <c r="E443" t="s">
+        <v>232</v>
+      </c>
+      <c r="F443" t="s">
+        <v>7</v>
+      </c>
+      <c r="G443" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8293</v>
+      </c>
+      <c r="B444">
+        <v>829</v>
+      </c>
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>829 text fr</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F444" t="s">
+        <v>7</v>
+      </c>
+      <c r="G444" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8294</v>
+      </c>
+      <c r="B445">
+        <v>829</v>
+      </c>
+      <c r="C445" t="s">
+        <v>11</v>
+      </c>
+      <c r="D445" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>829 text de</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F445" t="s">
+        <v>7</v>
+      </c>
+      <c r="G445" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"1")</f>
+        <v>8301</v>
+      </c>
+      <c r="B446">
+        <v>830</v>
+      </c>
+      <c r="C446" t="s">
+        <v>4</v>
+      </c>
+      <c r="D446" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>830 Passaggio stretto o traccia lineare attraverso il terreno: corsa molto lenta</v>
+      </c>
+      <c r="E446" t="s">
+        <v>233</v>
+      </c>
+      <c r="F446" t="s">
+        <v>7</v>
+      </c>
+      <c r="G446" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"2")</f>
+        <v>8302</v>
+      </c>
+      <c r="B447">
+        <v>830</v>
+      </c>
+      <c r="C447" t="s">
+        <v>5</v>
+      </c>
+      <c r="D447" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>830 Narrow ride or linear trace through the terrain, permitted to ride: very slow riding</v>
+      </c>
+      <c r="E447" t="s">
+        <v>234</v>
+      </c>
+      <c r="F447" t="s">
+        <v>7</v>
+      </c>
+      <c r="G447" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"3")</f>
+        <v>8303</v>
+      </c>
+      <c r="B448">
+        <v>830</v>
+      </c>
+      <c r="C448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>830 text fr</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F448" t="s">
+        <v>7</v>
+      </c>
+      <c r="G448" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]],"4")</f>
+        <v>8304</v>
+      </c>
+      <c r="B449">
+        <v>830</v>
+      </c>
+      <c r="C449" t="s">
+        <v>11</v>
+      </c>
+      <c r="D449" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[code]]," ",Table1[[#This Row],[description_shorttext]])</f>
+        <v>830 text de</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F449" t="s">
+        <v>7</v>
+      </c>
+      <c r="G449" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -9241,18 +11390,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F373</xm:sqref>
+          <xm:sqref>F2:F449</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C373</xm:sqref>
+          <xm:sqref>C2:C449</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9283,7 +11432,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
